--- a/Data/source1.xlsx
+++ b/Data/source1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="715" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" tabRatio="715" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,6 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId23"/>
-    <externalReference r:id="rId24"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Database Food'!$B$2:$I$259</definedName>
@@ -125,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="716">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="715">
   <si>
     <t>Data inputs and calculations CO2 journal</t>
   </si>
@@ -2266,13 +2265,10 @@
     <t>Bathing Emission</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Shravan Kumar</t>
-  </si>
-  <si>
-    <t>cvlshravan@gmail.com</t>
+    <t>Annalisa Mansukhani</t>
+  </si>
+  <si>
+    <t>annalisa.mansukhani@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -3428,7 +3424,7 @@
     <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="425">
+  <cellXfs count="426">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3883,6 +3879,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4200,47 +4240,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -6994,21 +6993,6 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Electricity mix footprint"/>
-      <sheetName val="back end data"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FoodEmission2" displayName="FoodEmission2" ref="A2:I259" totalsRowShown="0" headerRowDxfId="20" headerRowBorderDxfId="19">
   <autoFilter ref="A2:I259"/>
@@ -7471,11 +7455,11 @@
       <c r="R3" s="140"/>
     </row>
     <row r="4" spans="1:18" ht="64.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="309" t="s">
+      <c r="A4" s="324" t="s">
         <v>615</v>
       </c>
-      <c r="B4" s="309"/>
-      <c r="C4" s="309"/>
+      <c r="B4" s="324"/>
+      <c r="C4" s="324"/>
       <c r="D4" s="140"/>
       <c r="E4" s="140"/>
       <c r="F4" s="140"/>
@@ -7516,10 +7500,10 @@
       <c r="A6" s="161" t="s">
         <v>450</v>
       </c>
-      <c r="B6" s="310" t="s">
+      <c r="B6" s="325" t="s">
         <v>451</v>
       </c>
-      <c r="C6" s="311"/>
+      <c r="C6" s="326"/>
       <c r="D6" s="140"/>
       <c r="E6" s="140"/>
       <c r="F6" s="140"/>
@@ -7540,8 +7524,8 @@
       <c r="A7" s="162" t="s">
         <v>516</v>
       </c>
-      <c r="B7" s="414" t="s">
-        <v>714</v>
+      <c r="B7" s="312" t="s">
+        <v>713</v>
       </c>
       <c r="C7" s="164"/>
       <c r="D7" s="140"/>
@@ -7564,8 +7548,8 @@
       <c r="A8" s="163" t="s">
         <v>515</v>
       </c>
-      <c r="B8" s="414" t="s">
-        <v>715</v>
+      <c r="B8" s="313" t="s">
+        <v>714</v>
       </c>
       <c r="C8" s="164"/>
       <c r="D8" s="140"/>
@@ -7588,7 +7572,7 @@
       <c r="A9" s="163" t="s">
         <v>541</v>
       </c>
-      <c r="B9" s="414">
+      <c r="B9" s="312">
         <v>1995</v>
       </c>
       <c r="C9" s="164"/>
@@ -7612,8 +7596,8 @@
       <c r="A10" s="163" t="s">
         <v>517</v>
       </c>
-      <c r="B10" s="414" t="s">
-        <v>713</v>
+      <c r="B10" s="312" t="s">
+        <v>540</v>
       </c>
       <c r="C10" s="164"/>
       <c r="D10" s="140"/>
@@ -7636,7 +7620,7 @@
       <c r="A11" s="163" t="s">
         <v>518</v>
       </c>
-      <c r="B11" s="414" t="s">
+      <c r="B11" s="312" t="s">
         <v>533</v>
       </c>
       <c r="C11" s="164"/>
@@ -7658,7 +7642,7 @@
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" s="163"/>
-      <c r="B12" s="411"/>
+      <c r="B12" s="309"/>
       <c r="C12" s="164"/>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
@@ -7680,7 +7664,7 @@
       <c r="A13" s="165" t="s">
         <v>270</v>
       </c>
-      <c r="B13" s="412"/>
+      <c r="B13" s="310"/>
       <c r="C13" s="166"/>
       <c r="D13" s="140"/>
       <c r="E13" s="140"/>
@@ -7702,8 +7686,8 @@
       <c r="A14" s="163" t="s">
         <v>452</v>
       </c>
-      <c r="B14" s="413" t="s">
-        <v>249</v>
+      <c r="B14" s="311" t="s">
+        <v>215</v>
       </c>
       <c r="C14" s="164"/>
       <c r="D14" s="140"/>
@@ -7726,7 +7710,7 @@
       <c r="A15" s="163" t="s">
         <v>453</v>
       </c>
-      <c r="B15" s="413" t="s">
+      <c r="B15" s="311" t="s">
         <v>256</v>
       </c>
       <c r="C15" s="164"/>
@@ -12681,41 +12665,42 @@
     <hyperlink ref="B21" location="'explore alternative lifestyles'!A1" display="click here"/>
     <hyperlink ref="B20" location="'total footprint report'!A1" display="click here"/>
     <hyperlink ref="B22" location="'Report preferences'!A1" display="click here"/>
+    <hyperlink ref="B8" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\User Info\Old Input Data\[CO2 calculator_Bala.xlsm]back end data'!#REF!</xm:f>
+            <xm:f>'back end data'!$A$79:$A$81</xm:f>
           </x14:formula1>
           <xm:sqref>B15</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\User Info\Old Input Data\[CO2 calculator_Bala.xlsm]Electricity mix footprint'!#REF!</xm:f>
+            <xm:f>'Electricity mix footprint'!$A$6:$A$67</xm:f>
           </x14:formula1>
           <xm:sqref>B14</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\Archives-Fall\Archives-Weekly Progress\User Info\User Files Compiled\[CO2 calculator [Bala].xlsm]back end data'!#REF!</xm:f>
+            <xm:f>'back end data'!$A$111:$A$119</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\Archives-Fall\Archives-Weekly Progress\User Info\User Files Compiled\[CO2 calculator [Bala].xlsm]back end data'!#REF!</xm:f>
+            <xm:f>'back end data'!$B$111:$B$113</xm:f>
           </x14:formula1>
           <xm:sqref>B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\Archives-Fall\Archives-Weekly Progress\User Info\User Files Compiled\[CO2 calculator [Bala].xlsm]back end data'!#REF!</xm:f>
+            <xm:f>'back end data'!$P$5:$P$91</xm:f>
           </x14:formula1>
-          <xm:sqref>B11</xm:sqref>
+          <xm:sqref>B9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -12742,56 +12727,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="390" t="s">
+      <c r="A1" s="405" t="s">
         <v>268</v>
       </c>
-      <c r="B1" s="390"/>
-      <c r="C1" s="390"/>
-      <c r="D1" s="391" t="s">
+      <c r="B1" s="405"/>
+      <c r="C1" s="405"/>
+      <c r="D1" s="406" t="s">
         <v>579</v>
       </c>
-      <c r="E1" s="391"/>
-      <c r="F1" s="391"/>
-      <c r="G1" s="391"/>
-      <c r="H1" s="391"/>
+      <c r="E1" s="406"/>
+      <c r="F1" s="406"/>
+      <c r="G1" s="406"/>
+      <c r="H1" s="406"/>
     </row>
     <row r="2" spans="1:26" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="390"/>
-      <c r="B2" s="390"/>
-      <c r="C2" s="390"/>
-      <c r="D2" s="392" t="s">
+      <c r="A2" s="405"/>
+      <c r="B2" s="405"/>
+      <c r="C2" s="405"/>
+      <c r="D2" s="407" t="s">
         <v>524</v>
       </c>
-      <c r="E2" s="392"/>
-      <c r="F2" s="392"/>
-      <c r="G2" s="392"/>
-      <c r="H2" s="392"/>
+      <c r="E2" s="407"/>
+      <c r="F2" s="407"/>
+      <c r="G2" s="407"/>
+      <c r="H2" s="407"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.35">
-      <c r="A3" s="393" t="s">
+      <c r="A3" s="408" t="s">
         <v>580</v>
       </c>
-      <c r="B3" s="393"/>
+      <c r="B3" s="408"/>
       <c r="C3" s="234">
         <v>1</v>
       </c>
-      <c r="D3" s="392"/>
-      <c r="E3" s="392"/>
-      <c r="F3" s="392"/>
-      <c r="G3" s="392"/>
-      <c r="H3" s="392"/>
+      <c r="D3" s="407"/>
+      <c r="E3" s="407"/>
+      <c r="F3" s="407"/>
+      <c r="G3" s="407"/>
+      <c r="H3" s="407"/>
     </row>
     <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="235"/>
-      <c r="B4" s="394" t="s">
+      <c r="B4" s="409" t="s">
         <v>612</v>
       </c>
-      <c r="C4" s="394"/>
-      <c r="D4" s="394"/>
-      <c r="E4" s="394"/>
-      <c r="F4" s="394"/>
-      <c r="G4" s="394"/>
-      <c r="H4" s="394"/>
+      <c r="C4" s="409"/>
+      <c r="D4" s="409"/>
+      <c r="E4" s="409"/>
+      <c r="F4" s="409"/>
+      <c r="G4" s="409"/>
+      <c r="H4" s="409"/>
     </row>
     <row r="5" spans="1:26" ht="14.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="135" t="s">
@@ -13480,32 +13465,32 @@
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B3" s="355" t="s">
+      <c r="B3" s="370" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="356"/>
-      <c r="D3" s="356"/>
-      <c r="E3" s="356"/>
-      <c r="F3" s="357"/>
-      <c r="G3" s="361" t="s">
+      <c r="C3" s="371"/>
+      <c r="D3" s="371"/>
+      <c r="E3" s="371"/>
+      <c r="F3" s="372"/>
+      <c r="G3" s="376" t="s">
         <v>181</v>
       </c>
-      <c r="H3" s="362"/>
-      <c r="I3" s="362"/>
-      <c r="J3" s="362"/>
-      <c r="K3" s="363"/>
+      <c r="H3" s="377"/>
+      <c r="I3" s="377"/>
+      <c r="J3" s="377"/>
+      <c r="K3" s="378"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="358"/>
-      <c r="C4" s="359"/>
-      <c r="D4" s="359"/>
-      <c r="E4" s="359"/>
-      <c r="F4" s="360"/>
-      <c r="G4" s="364"/>
-      <c r="H4" s="365"/>
-      <c r="I4" s="365"/>
-      <c r="J4" s="365"/>
-      <c r="K4" s="366"/>
+      <c r="B4" s="373"/>
+      <c r="C4" s="374"/>
+      <c r="D4" s="374"/>
+      <c r="E4" s="374"/>
+      <c r="F4" s="375"/>
+      <c r="G4" s="379"/>
+      <c r="H4" s="380"/>
+      <c r="I4" s="380"/>
+      <c r="J4" s="380"/>
+      <c r="K4" s="381"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="46" t="s">
@@ -13564,21 +13549,21 @@
       </c>
       <c r="B7" s="39">
         <f>'Household Input'!C11*A7</f>
-        <v>1050</v>
+        <v>2100</v>
       </c>
       <c r="C7" s="40"/>
       <c r="D7" s="40">
         <f>B7*VLOOKUP(Start!B15,'back end data'!A76:G77,4,FALSE)</f>
-        <v>18.906023888888889</v>
+        <v>62.894153259259262</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="32">
         <f>B7*VLOOKUP(Start!B15,'back end data'!A76:G77,6,FALSE)</f>
-        <v>37.92962962962963</v>
+        <v>75.859259259259261</v>
       </c>
       <c r="G7" s="30">
         <f t="shared" ref="G7:K13" si="0">52.14*B7</f>
-        <v>54747</v>
+        <v>109494</v>
       </c>
       <c r="H7" s="31">
         <f t="shared" si="0"/>
@@ -13586,7 +13571,7 @@
       </c>
       <c r="I7" s="301">
         <f t="shared" si="0"/>
-        <v>985.7600855666667</v>
+        <v>3279.3011509377779</v>
       </c>
       <c r="J7" s="31">
         <f t="shared" si="0"/>
@@ -13594,7 +13579,7 @@
       </c>
       <c r="K7" s="32">
         <f t="shared" si="0"/>
-        <v>1977.6508888888889</v>
+        <v>3955.3017777777777</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -13640,11 +13625,11 @@
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <f>VLOOKUP('Household Input'!B13,'back end data'!A16:B18,2,FALSE)</f>
-        <v>13</v>
+        <v>3.5</v>
       </c>
       <c r="B9" s="39">
         <f>7*'Household Input'!C13*A9</f>
-        <v>455</v>
+        <v>73.5</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="40">
@@ -13656,7 +13641,7 @@
       </c>
       <c r="G9" s="30">
         <f t="shared" si="0"/>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="H9" s="31">
         <f t="shared" si="0"/>
@@ -13682,7 +13667,7 @@
       </c>
       <c r="B10" s="39">
         <f>7*'Household Input'!C14*A10</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40">
@@ -13694,7 +13679,7 @@
       </c>
       <c r="G10" s="30">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2189.88</v>
       </c>
       <c r="H10" s="31">
         <f t="shared" si="0"/>
@@ -13720,7 +13705,7 @@
       </c>
       <c r="B11" s="39">
         <f>7*'Household Input'!C15*A11</f>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="C11" s="40"/>
       <c r="D11" s="40">
@@ -13732,7 +13717,7 @@
       </c>
       <c r="G11" s="30">
         <f t="shared" si="0"/>
-        <v>2554.86</v>
+        <v>1459.92</v>
       </c>
       <c r="H11" s="31">
         <f t="shared" si="0"/>
@@ -13758,7 +13743,7 @@
       </c>
       <c r="B12" s="39">
         <f>'Household Input'!C16*A12</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C12" s="40"/>
       <c r="D12" s="40">
@@ -13770,7 +13755,7 @@
       </c>
       <c r="G12" s="30">
         <f t="shared" si="0"/>
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="H12" s="31">
         <f t="shared" si="0"/>
@@ -13826,25 +13811,25 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <f>VLOOKUP('Household Input'!B19,'back end data'!A30:B32,2,FALSE)</f>
-        <v>13.95</v>
+        <v>7.14</v>
       </c>
       <c r="B15" s="39">
         <f>'Household Input'!C19*A15</f>
-        <v>97.649999999999991</v>
+        <v>24.99</v>
       </c>
       <c r="C15" s="40"/>
       <c r="D15" s="40">
         <f>'Household Input'!C19*VLOOKUP(Start!B15,'back end data'!A80:I81,8,FALSE)</f>
-        <v>1.7825679666666669</v>
+        <v>1.4825050411111111</v>
       </c>
       <c r="E15" s="40"/>
       <c r="F15" s="41">
         <f>'Household Input'!C19*VLOOKUP(Start!B15,'back end data'!A80:I81,6,FALSE)</f>
-        <v>0.29801851851851852</v>
+        <v>0.14900925925925926</v>
       </c>
       <c r="G15" s="30">
         <f t="shared" ref="G15:K16" si="1">52.14*B15</f>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="H15" s="31">
         <f t="shared" si="1"/>
@@ -13852,7 +13837,7 @@
       </c>
       <c r="I15" s="301">
         <f t="shared" si="1"/>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="J15" s="31">
         <f t="shared" si="1"/>
@@ -13860,13 +13845,13 @@
       </c>
       <c r="K15" s="32">
         <f t="shared" si="1"/>
-        <v>15.538685555555556</v>
+        <v>7.7693427777777782</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <f>VLOOKUP('Household Input'!B20,'back end data'!A34:B35,2,FALSE)</f>
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="B16" s="39">
         <v>0</v>
@@ -13874,12 +13859,12 @@
       <c r="C16" s="40"/>
       <c r="D16" s="40">
         <f>F16*'back end data'!B63</f>
-        <v>1.8492495</v>
+        <v>0</v>
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="41">
         <f>'Household Input'!C20*A16</f>
-        <v>3.71</v>
+        <v>0</v>
       </c>
       <c r="G16" s="30">
         <f t="shared" si="1"/>
@@ -13891,7 +13876,7 @@
       </c>
       <c r="I16" s="301">
         <f t="shared" si="1"/>
-        <v>96.419868930000007</v>
+        <v>0</v>
       </c>
       <c r="J16" s="31">
         <f t="shared" si="1"/>
@@ -13899,7 +13884,7 @@
       </c>
       <c r="K16" s="32">
         <f t="shared" si="1"/>
-        <v>193.43940000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -13936,25 +13921,25 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <f>VLOOKUP('Household Input'!B23,'back end data'!A38:B40,2,FALSE)</f>
-        <v>0.36</v>
+        <v>0.12</v>
       </c>
       <c r="B19" s="39">
         <f>'Household Input'!C23*7</f>
-        <v>3.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="C19" s="40"/>
       <c r="D19" s="40">
         <f>F19*'back end data'!B63</f>
-        <v>0.62804700000000002</v>
+        <v>0.13928712000000001</v>
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="41">
         <f>'Household Input'!C23*7*A19</f>
-        <v>1.26</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="G19" s="30">
         <f t="shared" ref="G19:K22" si="2">52.14*B19</f>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="H19" s="31">
         <f t="shared" si="2"/>
@@ -13962,7 +13947,7 @@
       </c>
       <c r="I19" s="301">
         <f t="shared" si="2"/>
-        <v>32.746370580000004</v>
+        <v>7.2624304368000008</v>
       </c>
       <c r="J19" s="31">
         <f t="shared" si="2"/>
@@ -13970,7 +13955,7 @@
       </c>
       <c r="K19" s="32">
         <f t="shared" si="2"/>
-        <v>65.696399999999997</v>
+        <v>8.7595200000000002</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -13980,21 +13965,21 @@
       </c>
       <c r="B20" s="39">
         <f>'Household Input'!C24*'household calculator'!A20</f>
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40">
         <f>B20*0.5*VLOOKUP(Start!B15,'back end data'!A83:G84,4,FALSE)</f>
-        <v>2.5658175277777775</v>
+        <v>1.829064661111111</v>
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="41">
         <f>B20*0.5*VLOOKUP(Start!B15,'back end data'!A83:G84,6,FALSE)</f>
-        <v>5.1475925925925923</v>
+        <v>2.2061111111111109</v>
       </c>
       <c r="G20" s="30">
         <f t="shared" si="2"/>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="H20" s="31">
         <f t="shared" si="2"/>
@@ -14002,7 +13987,7 @@
       </c>
       <c r="I20" s="301">
         <f t="shared" si="2"/>
-        <v>133.78172589833332</v>
+        <v>95.367431430333326</v>
       </c>
       <c r="J20" s="31">
         <f t="shared" si="2"/>
@@ -14010,7 +13995,7 @@
       </c>
       <c r="K20" s="32">
         <f t="shared" si="2"/>
-        <v>268.39547777777778</v>
+        <v>115.02663333333332</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -14098,12 +14083,12 @@
       <c r="C24" s="40"/>
       <c r="D24" s="40">
         <f>F24*'back end data'!$B$63</f>
-        <v>0</v>
+        <v>0.14923619999999999</v>
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="41">
         <f>'Household Input'!C28*A24</f>
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="G24" s="30">
         <f t="shared" ref="G24:K27" si="3">52.14*B24</f>
@@ -14115,7 +14100,7 @@
       </c>
       <c r="I24" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7811754679999989</v>
       </c>
       <c r="J24" s="31">
         <f t="shared" si="3"/>
@@ -14123,7 +14108,7 @@
       </c>
       <c r="K24" s="32">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9.3851999999999993</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -14137,12 +14122,12 @@
       <c r="C25" s="40"/>
       <c r="D25" s="40">
         <f>F25*'back end data'!$B$63</f>
-        <v>2.6168624999999999</v>
+        <v>1.4509075</v>
       </c>
       <c r="E25" s="40"/>
       <c r="F25" s="41">
         <f>7*'Household Input'!C29*A25</f>
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="G25" s="30">
         <f t="shared" si="3"/>
@@ -14154,7 +14139,7 @@
       </c>
       <c r="I25" s="31">
         <f t="shared" si="3"/>
-        <v>136.44321074999999</v>
+        <v>75.650317049999998</v>
       </c>
       <c r="J25" s="31">
         <f t="shared" si="3"/>
@@ -14162,7 +14147,7 @@
       </c>
       <c r="K25" s="32">
         <f t="shared" si="3"/>
-        <v>273.73500000000001</v>
+        <v>91.245000000000005</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -14176,12 +14161,12 @@
       <c r="C26" s="40"/>
       <c r="D26" s="40">
         <f>F26*'back end data'!$B$63</f>
-        <v>2.6168625000000001E-2</v>
+        <v>2.9018150000000003E-2</v>
       </c>
       <c r="E26" s="40"/>
       <c r="F26" s="41">
         <f>7*'Household Input'!C30*A26</f>
-        <v>5.2499999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="G26" s="30">
         <f t="shared" si="3"/>
@@ -14193,7 +14178,7 @@
       </c>
       <c r="I26" s="31">
         <f t="shared" si="3"/>
-        <v>1.3644321075000001</v>
+        <v>1.5130063410000001</v>
       </c>
       <c r="J26" s="31">
         <f t="shared" si="3"/>
@@ -14201,7 +14186,7 @@
       </c>
       <c r="K26" s="32">
         <f t="shared" si="3"/>
-        <v>2.7373499999999997</v>
+        <v>1.8249000000000002</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -14274,7 +14259,7 @@
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="37">
         <f>VLOOKUP('Household Input'!B34,'back end data'!A67:B71,2,FALSE)</f>
-        <v>0.01</v>
+        <v>1.2999999999999999E-2</v>
       </c>
       <c r="B30" s="42">
         <v>0</v>
@@ -14282,12 +14267,12 @@
       <c r="C30" s="43"/>
       <c r="D30" s="43">
         <f>F30*'back end data'!B63</f>
-        <v>2.0934900000000001</v>
+        <v>2.1125213199999999</v>
       </c>
       <c r="E30" s="43"/>
       <c r="F30" s="44">
         <f>'Household Input'!C34*4*7*A30</f>
-        <v>4.2</v>
+        <v>2.548</v>
       </c>
       <c r="G30" s="36">
         <f>52.14*B30</f>
@@ -14299,7 +14284,7 @@
       </c>
       <c r="I30" s="37">
         <f>52.14*D30</f>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="J30" s="37">
         <f>52.14*E30</f>
@@ -14307,14 +14292,14 @@
       </c>
       <c r="K30" s="38">
         <f>52.14*F30</f>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="58"/>
       <c r="B31" s="59">
         <f>SUM(B7:B30)</f>
-        <v>1870.15</v>
+        <v>2359.89</v>
       </c>
       <c r="C31" s="59">
         <f t="shared" ref="C31:F31" si="4">SUM(C7:C30)</f>
@@ -14322,7 +14307,7 @@
       </c>
       <c r="D31" s="59">
         <f t="shared" si="4"/>
-        <v>30.468227008333333</v>
+        <v>70.086693251481492</v>
       </c>
       <c r="E31" s="59">
         <f t="shared" si="4"/>
@@ -14330,11 +14315,11 @@
       </c>
       <c r="F31" s="59">
         <f t="shared" si="4"/>
-        <v>57.847740740740747</v>
+        <v>82.895379629629645</v>
       </c>
       <c r="G31" s="59">
         <f t="shared" ref="G31" si="5">SUM(G7:G30)</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="H31" s="59">
         <f t="shared" ref="H31" si="6">SUM(H7:H30)</f>
@@ -14342,7 +14327,7 @@
       </c>
       <c r="I31" s="59">
         <f t="shared" ref="I31" si="7">SUM(I7:I30)</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="J31" s="59">
         <f t="shared" ref="J31" si="8">SUM(J7:J30)</f>
@@ -14350,7 +14335,7 @@
       </c>
       <c r="K31" s="59">
         <f t="shared" ref="K31" si="9">SUM(K7:K30)</f>
-        <v>3016.1812022222216</v>
+        <v>4322.1650938888879</v>
       </c>
     </row>
   </sheetData>
@@ -15088,14 +15073,14 @@
       </c>
       <c r="B63">
         <f>VLOOKUP(Start!B14,'Electricity mix footprint'!A7:D67,4,FALSE)</f>
-        <v>0.49845</v>
+        <v>0.82908999999999999</v>
       </c>
       <c r="C63" t="s">
         <v>35</v>
       </c>
       <c r="F63">
         <f>0.2*B63</f>
-        <v>9.9690000000000001E-2</v>
+        <v>0.16581800000000002</v>
       </c>
       <c r="P63">
         <v>1987</v>
@@ -15291,7 +15276,7 @@
       </c>
       <c r="D77" s="18">
         <f>B77*B63</f>
-        <v>1.8005737037037037E-2</v>
+        <v>2.9949596790123458E-2</v>
       </c>
       <c r="E77" t="s">
         <v>17</v>
@@ -15397,7 +15382,7 @@
       </c>
       <c r="D81" s="18">
         <f>B81*B63</f>
-        <v>2.1221047222222223E-2</v>
+        <v>3.5297739074074075E-2</v>
       </c>
       <c r="E81" t="s">
         <v>17</v>
@@ -15411,7 +15396,7 @@
       </c>
       <c r="H81">
         <f>D81*12</f>
-        <v>0.25465256666666669</v>
+        <v>0.4235728688888889</v>
       </c>
       <c r="I81" t="s">
         <v>266</v>
@@ -15477,7 +15462,7 @@
       </c>
       <c r="D84" s="18">
         <f>B84*B63</f>
-        <v>2.4436357407407405E-2</v>
+        <v>4.0645881358024688E-2</v>
       </c>
       <c r="E84" t="s">
         <v>17</v>
@@ -15913,97 +15898,97 @@
     </row>
     <row r="6" spans="1:39" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56"/>
-      <c r="B6" s="349" t="s">
+      <c r="B6" s="364" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="350"/>
-      <c r="D6" s="351"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="366"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="355" t="s">
+      <c r="F6" s="370" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="356"/>
-      <c r="H6" s="356"/>
-      <c r="I6" s="356"/>
-      <c r="J6" s="357"/>
-      <c r="K6" s="395" t="s">
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="410" t="s">
         <v>317</v>
       </c>
-      <c r="L6" s="396"/>
-      <c r="M6" s="396"/>
-      <c r="N6" s="396"/>
-      <c r="O6" s="397"/>
-      <c r="P6" s="367" t="s">
+      <c r="L6" s="411"/>
+      <c r="M6" s="411"/>
+      <c r="N6" s="411"/>
+      <c r="O6" s="412"/>
+      <c r="P6" s="382" t="s">
         <v>318</v>
       </c>
-      <c r="Q6" s="368"/>
-      <c r="R6" s="368"/>
-      <c r="S6" s="368"/>
-      <c r="T6" s="368"/>
+      <c r="Q6" s="383"/>
+      <c r="R6" s="383"/>
+      <c r="S6" s="383"/>
+      <c r="T6" s="383"/>
       <c r="U6" s="182"/>
-      <c r="V6" s="336" t="s">
+      <c r="V6" s="351" t="s">
         <v>521</v>
       </c>
-      <c r="W6" s="337"/>
-      <c r="X6" s="337"/>
-      <c r="Y6" s="337"/>
-      <c r="Z6" s="338"/>
+      <c r="W6" s="352"/>
+      <c r="X6" s="352"/>
+      <c r="Y6" s="352"/>
+      <c r="Z6" s="353"/>
       <c r="AA6" s="56"/>
-      <c r="AB6" s="343" t="s">
+      <c r="AB6" s="358" t="s">
         <v>330</v>
       </c>
-      <c r="AC6" s="344"/>
-      <c r="AD6" s="344"/>
-      <c r="AE6" s="344"/>
-      <c r="AF6" s="345"/>
-      <c r="AG6" s="336" t="s">
+      <c r="AC6" s="359"/>
+      <c r="AD6" s="359"/>
+      <c r="AE6" s="359"/>
+      <c r="AF6" s="360"/>
+      <c r="AG6" s="351" t="s">
         <v>522</v>
       </c>
-      <c r="AH6" s="337"/>
-      <c r="AI6" s="337"/>
-      <c r="AJ6" s="337"/>
-      <c r="AK6" s="338"/>
+      <c r="AH6" s="352"/>
+      <c r="AI6" s="352"/>
+      <c r="AJ6" s="352"/>
+      <c r="AK6" s="353"/>
       <c r="AL6" s="56"/>
       <c r="AM6" s="56"/>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="56"/>
-      <c r="B7" s="352"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="354"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="368"/>
+      <c r="D7" s="369"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="359"/>
-      <c r="J7" s="360"/>
-      <c r="K7" s="398"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="399"/>
-      <c r="N7" s="399"/>
-      <c r="O7" s="400"/>
-      <c r="P7" s="369"/>
-      <c r="Q7" s="370"/>
-      <c r="R7" s="370"/>
-      <c r="S7" s="370"/>
-      <c r="T7" s="370"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="375"/>
+      <c r="K7" s="413"/>
+      <c r="L7" s="414"/>
+      <c r="M7" s="414"/>
+      <c r="N7" s="414"/>
+      <c r="O7" s="415"/>
+      <c r="P7" s="384"/>
+      <c r="Q7" s="385"/>
+      <c r="R7" s="385"/>
+      <c r="S7" s="385"/>
+      <c r="T7" s="385"/>
       <c r="U7" s="182"/>
-      <c r="V7" s="339"/>
-      <c r="W7" s="340"/>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="341"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="355"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="356"/>
       <c r="AA7" s="56"/>
-      <c r="AB7" s="346"/>
-      <c r="AC7" s="347"/>
-      <c r="AD7" s="347"/>
-      <c r="AE7" s="347"/>
-      <c r="AF7" s="348"/>
-      <c r="AG7" s="339"/>
-      <c r="AH7" s="340"/>
-      <c r="AI7" s="340"/>
-      <c r="AJ7" s="340"/>
-      <c r="AK7" s="341"/>
+      <c r="AB7" s="361"/>
+      <c r="AC7" s="362"/>
+      <c r="AD7" s="362"/>
+      <c r="AE7" s="362"/>
+      <c r="AF7" s="363"/>
+      <c r="AG7" s="354"/>
+      <c r="AH7" s="355"/>
+      <c r="AI7" s="355"/>
+      <c r="AJ7" s="355"/>
+      <c r="AK7" s="356"/>
       <c r="AL7" s="56"/>
       <c r="AM7" s="56"/>
     </row>
@@ -16187,7 +16172,7 @@
       </c>
       <c r="C10" s="152">
         <f>'Household Input'!C11</f>
-        <v>105</v>
+        <v>210</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>145</v>
@@ -16198,21 +16183,21 @@
       </c>
       <c r="F10" s="39">
         <f>C10*E10</f>
-        <v>577.5</v>
+        <v>1155</v>
       </c>
       <c r="G10" s="40"/>
       <c r="H10" s="40">
         <f>F10*VLOOKUP(Start!B15,'back end data'!A76:G77,4,FALSE)</f>
-        <v>10.39831313888889</v>
+        <v>34.591784292592592</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="32">
         <f>F10*VLOOKUP(Start!B15,'back end data'!A76:G77,6,FALSE)</f>
-        <v>20.861296296296295</v>
+        <v>41.722592592592591</v>
       </c>
       <c r="K10" s="30">
         <f>52.14*F10</f>
-        <v>30110.85</v>
+        <v>60221.7</v>
       </c>
       <c r="L10" s="31">
         <f t="shared" ref="L10:O25" si="0">52.14*G10</f>
@@ -16220,7 +16205,7 @@
       </c>
       <c r="M10" s="256">
         <f t="shared" si="0"/>
-        <v>542.1680470616667</v>
+        <v>1803.6156330157778</v>
       </c>
       <c r="N10" s="31">
         <f t="shared" si="0"/>
@@ -16228,11 +16213,11 @@
       </c>
       <c r="O10" s="32">
         <f t="shared" si="0"/>
-        <v>1087.7079888888888</v>
+        <v>2175.4159777777777</v>
       </c>
       <c r="P10" s="72">
         <f>'household calculator'!G7</f>
-        <v>54747</v>
+        <v>109494</v>
       </c>
       <c r="Q10" s="73">
         <f>'household calculator'!H7</f>
@@ -16240,7 +16225,7 @@
       </c>
       <c r="R10" s="252">
         <f>'household calculator'!I7</f>
-        <v>985.7600855666667</v>
+        <v>3279.3011509377779</v>
       </c>
       <c r="S10" s="73">
         <f>'household calculator'!J7</f>
@@ -16248,7 +16233,7 @@
       </c>
       <c r="T10" s="73">
         <f>'household calculator'!K7</f>
-        <v>1977.6508888888889</v>
+        <v>3955.3017777777777</v>
       </c>
       <c r="U10" s="130"/>
       <c r="V10" s="79">
@@ -16274,21 +16259,21 @@
       <c r="AA10" s="56"/>
       <c r="AB10" s="101">
         <f>(P10-K10)/(P$34-K$34)</f>
-        <v>0.55414169608406527</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="102"/>
       <c r="AD10" s="102">
         <f t="shared" ref="AD10:AD25" si="2">(R10-M10)/(R$34-M$34)</f>
-        <v>0.78953049109552054</v>
+        <v>0.97940017596878437</v>
       </c>
       <c r="AE10" s="102"/>
       <c r="AF10" s="102">
         <f t="shared" ref="AF10:AF34" si="3">(T10-O10)/(T$34-O$34)</f>
-        <v>0.78953049109552131</v>
+        <v>0.97940017596878504</v>
       </c>
       <c r="AG10" s="187">
         <f>IF(P10&lt;&gt;0,(P10-K10),"")</f>
-        <v>24636.15</v>
+        <v>49272.3</v>
       </c>
       <c r="AH10" s="188" t="str">
         <f t="shared" ref="AH10:AK25" si="4">IF(Q10&lt;&gt;0,(Q10-L10),"")</f>
@@ -16296,7 +16281,7 @@
       </c>
       <c r="AI10" s="188">
         <f t="shared" si="4"/>
-        <v>443.592038505</v>
+        <v>1475.6855179220001</v>
       </c>
       <c r="AJ10" s="188" t="str">
         <f t="shared" si="4"/>
@@ -16304,7 +16289,7 @@
       </c>
       <c r="AK10" s="189">
         <f t="shared" si="4"/>
-        <v>889.94290000000001</v>
+        <v>1779.8858</v>
       </c>
       <c r="AL10" s="56"/>
       <c r="AM10" s="56"/>
@@ -16451,7 +16436,7 @@
       </c>
       <c r="C12" s="152">
         <f>'Household Input'!C13</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D12" s="32" t="s">
         <v>149</v>
@@ -16462,7 +16447,7 @@
       </c>
       <c r="F12" s="39">
         <f>7*C12*E12</f>
-        <v>122.5</v>
+        <v>73.5</v>
       </c>
       <c r="G12" s="40"/>
       <c r="H12" s="40">
@@ -16474,7 +16459,7 @@
       </c>
       <c r="K12" s="30">
         <f t="shared" si="5"/>
-        <v>6387.15</v>
+        <v>3832.29</v>
       </c>
       <c r="L12" s="31">
         <f t="shared" si="0"/>
@@ -16494,7 +16479,7 @@
       </c>
       <c r="P12" s="72">
         <f>'household calculator'!G9</f>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="Q12" s="73">
         <f>'household calculator'!H9</f>
@@ -16515,7 +16500,7 @@
       <c r="U12" s="130"/>
       <c r="V12" s="79">
         <f t="shared" si="6"/>
-        <v>0.73076923076923084</v>
+        <v>0</v>
       </c>
       <c r="W12" s="80" t="str">
         <f t="shared" si="1"/>
@@ -16536,7 +16521,7 @@
       <c r="AA12" s="56"/>
       <c r="AB12" s="101">
         <f t="shared" si="7"/>
-        <v>0.38995156391100899</v>
+        <v>0</v>
       </c>
       <c r="AC12" s="103"/>
       <c r="AD12" s="102">
@@ -16550,7 +16535,7 @@
       </c>
       <c r="AG12" s="187">
         <f t="shared" si="8"/>
-        <v>17336.550000000003</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="188" t="str">
         <f t="shared" si="4"/>
@@ -16581,7 +16566,7 @@
       </c>
       <c r="C13" s="152">
         <f>'Household Input'!C14</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D13" s="32" t="s">
         <v>149</v>
@@ -16592,7 +16577,7 @@
       </c>
       <c r="F13" s="39">
         <f>7*C13*E13</f>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="40">
@@ -16604,7 +16589,7 @@
       </c>
       <c r="K13" s="30">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2189.88</v>
       </c>
       <c r="L13" s="31">
         <f t="shared" si="0"/>
@@ -16624,7 +16609,7 @@
       </c>
       <c r="P13" s="72">
         <f>'household calculator'!G10</f>
-        <v>0</v>
+        <v>2189.88</v>
       </c>
       <c r="Q13" s="73">
         <f>'household calculator'!H10</f>
@@ -16643,9 +16628,9 @@
         <v>0</v>
       </c>
       <c r="U13" s="130"/>
-      <c r="V13" s="79" t="str">
+      <c r="V13" s="79">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W13" s="80" t="str">
         <f t="shared" si="1"/>
@@ -16678,9 +16663,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="187" t="str">
+      <c r="AG13" s="187">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AH13" s="188" t="str">
         <f t="shared" si="4"/>
@@ -16710,7 +16695,7 @@
       </c>
       <c r="C14" s="152">
         <f>'Household Input'!C15</f>
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D14" s="32" t="s">
         <v>149</v>
@@ -16721,7 +16706,7 @@
       </c>
       <c r="F14" s="39">
         <f>7*C14*E14</f>
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="G14" s="40"/>
       <c r="H14" s="40">
@@ -16733,7 +16718,7 @@
       </c>
       <c r="K14" s="30">
         <f t="shared" si="5"/>
-        <v>2554.86</v>
+        <v>1459.92</v>
       </c>
       <c r="L14" s="31">
         <f t="shared" si="0"/>
@@ -16753,7 +16738,7 @@
       </c>
       <c r="P14" s="72">
         <f>'household calculator'!G11</f>
-        <v>2554.86</v>
+        <v>1459.92</v>
       </c>
       <c r="Q14" s="73">
         <f>'household calculator'!H11</f>
@@ -16839,7 +16824,7 @@
       </c>
       <c r="C15" s="152">
         <f>'Household Input'!C16</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="32" t="s">
         <v>144</v>
@@ -16850,7 +16835,7 @@
       </c>
       <c r="F15" s="39">
         <f>C15*E15</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="40">
@@ -16862,7 +16847,7 @@
       </c>
       <c r="K15" s="30">
         <f t="shared" si="5"/>
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="L15" s="31">
         <f t="shared" si="0"/>
@@ -16882,7 +16867,7 @@
       </c>
       <c r="P15" s="72">
         <f>'household calculator'!G12</f>
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="73">
         <f>'household calculator'!H12</f>
@@ -16901,9 +16886,9 @@
         <v>0</v>
       </c>
       <c r="U15" s="130"/>
-      <c r="V15" s="79">
+      <c r="V15" s="79" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W15" s="80" t="str">
         <f t="shared" si="1"/>
@@ -16936,9 +16921,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="187">
+      <c r="AG15" s="187" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH15" s="188" t="str">
         <f t="shared" si="4"/>
@@ -17167,7 +17152,7 @@
       </c>
       <c r="C18" s="152">
         <f>'Household Input'!C19</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D18" s="32" t="s">
         <v>162</v>
@@ -17178,21 +17163,21 @@
       </c>
       <c r="F18" s="39">
         <f>C18*E18</f>
-        <v>49.98</v>
+        <v>24.99</v>
       </c>
       <c r="G18" s="40"/>
       <c r="H18" s="40">
         <f>C18*VLOOKUP(Start!B15,'back end data'!A80:I81,8,FALSE)</f>
-        <v>1.7825679666666669</v>
+        <v>1.4825050411111111</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="41">
         <f>C18*VLOOKUP(Start!B15,'back end data'!A80:I81,6,FALSE)</f>
-        <v>0.29801851851851852</v>
+        <v>0.14900925925925926</v>
       </c>
       <c r="K18" s="30">
         <f t="shared" si="5"/>
-        <v>2605.9571999999998</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="L18" s="31">
         <f t="shared" si="0"/>
@@ -17200,7 +17185,7 @@
       </c>
       <c r="M18" s="256">
         <f t="shared" si="0"/>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="N18" s="31">
         <f t="shared" si="0"/>
@@ -17208,11 +17193,11 @@
       </c>
       <c r="O18" s="32">
         <f t="shared" si="0"/>
-        <v>15.538685555555556</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="P18" s="72">
         <f>'household calculator'!G15</f>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="Q18" s="73">
         <f>'household calculator'!H15</f>
@@ -17220,7 +17205,7 @@
       </c>
       <c r="R18" s="252">
         <f>'household calculator'!I15</f>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="S18" s="73">
         <f>'household calculator'!J15</f>
@@ -17228,12 +17213,12 @@
       </c>
       <c r="T18" s="73">
         <f>'household calculator'!K15</f>
-        <v>15.538685555555556</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="U18" s="130"/>
       <c r="V18" s="79">
         <f t="shared" si="6"/>
-        <v>0.48817204301075268</v>
+        <v>0</v>
       </c>
       <c r="W18" s="80" t="str">
         <f t="shared" si="1"/>
@@ -17254,7 +17239,7 @@
       <c r="AA18" s="56"/>
       <c r="AB18" s="101">
         <f t="shared" si="7"/>
-        <v>5.5906740004925688E-2</v>
+        <v>0</v>
       </c>
       <c r="AC18" s="103"/>
       <c r="AD18" s="102">
@@ -17268,7 +17253,7 @@
       </c>
       <c r="AG18" s="187">
         <f t="shared" si="8"/>
-        <v>2485.5137999999997</v>
+        <v>0</v>
       </c>
       <c r="AH18" s="188" t="str">
         <f t="shared" si="4"/>
@@ -17299,7 +17284,7 @@
       </c>
       <c r="C19" s="152">
         <f>'Household Input'!C20</f>
-        <v>7</v>
+        <v>3.5</v>
       </c>
       <c r="D19" s="32" t="s">
         <v>162</v>
@@ -17351,7 +17336,7 @@
       </c>
       <c r="R19" s="252">
         <f>'household calculator'!I16</f>
-        <v>96.419868930000007</v>
+        <v>0</v>
       </c>
       <c r="S19" s="73">
         <f>'household calculator'!J16</f>
@@ -17359,7 +17344,7 @@
       </c>
       <c r="T19" s="73">
         <f>'household calculator'!K16</f>
-        <v>193.43940000000001</v>
+        <v>0</v>
       </c>
       <c r="U19" s="130"/>
       <c r="V19" s="79" t="str">
@@ -17370,17 +17355,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X19" s="80">
+      <c r="X19" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y19" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z19" s="81">
+      <c r="Z19" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AA19" s="56"/>
       <c r="AB19" s="101">
@@ -17390,12 +17375,12 @@
       <c r="AC19" s="103"/>
       <c r="AD19" s="102">
         <f t="shared" si="2"/>
-        <v>0.17161359956826763</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="103"/>
       <c r="AF19" s="102">
         <f t="shared" si="3"/>
-        <v>0.1716135995682678</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="187" t="str">
         <f t="shared" si="8"/>
@@ -17405,17 +17390,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI19" s="188">
+      <c r="AI19" s="188" t="str">
         <f t="shared" si="4"/>
-        <v>96.419868930000007</v>
+        <v/>
       </c>
       <c r="AJ19" s="188" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK19" s="189">
+      <c r="AK19" s="189" t="str">
         <f t="shared" si="4"/>
-        <v>193.43940000000001</v>
+        <v/>
       </c>
       <c r="AL19" s="56"/>
       <c r="AM19" s="56"/>
@@ -17625,7 +17610,7 @@
       </c>
       <c r="C22" s="152">
         <f>'Household Input'!C23</f>
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="D22" s="32" t="s">
         <v>167</v>
@@ -17636,21 +17621,21 @@
       </c>
       <c r="F22" s="39">
         <f>C22*7</f>
-        <v>3.5</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="G22" s="40"/>
       <c r="H22" s="40">
         <f>J22*'back end data'!B63</f>
-        <v>0.20934900000000001</v>
+        <v>0.13928712000000001</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="41">
         <f>C22*7*E22</f>
-        <v>0.42</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="K22" s="30">
         <f t="shared" si="5"/>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="L22" s="31">
         <f t="shared" si="0"/>
@@ -17658,7 +17643,7 @@
       </c>
       <c r="M22" s="256">
         <f t="shared" si="0"/>
-        <v>10.915456860000001</v>
+        <v>7.2624304368000008</v>
       </c>
       <c r="N22" s="31">
         <f t="shared" si="0"/>
@@ -17666,11 +17651,11 @@
       </c>
       <c r="O22" s="32">
         <f t="shared" si="0"/>
-        <v>21.898799999999998</v>
+        <v>8.7595200000000002</v>
       </c>
       <c r="P22" s="72">
         <f>'household calculator'!G19</f>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="Q22" s="73">
         <f>'household calculator'!H19</f>
@@ -17678,7 +17663,7 @@
       </c>
       <c r="R22" s="252">
         <f>'household calculator'!I19</f>
-        <v>32.746370580000004</v>
+        <v>7.2624304368000008</v>
       </c>
       <c r="S22" s="73">
         <f>'household calculator'!J19</f>
@@ -17686,7 +17671,7 @@
       </c>
       <c r="T22" s="73">
         <f>'household calculator'!K19</f>
-        <v>65.696399999999997</v>
+        <v>8.7595200000000002</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="79">
@@ -17699,7 +17684,7 @@
       </c>
       <c r="X22" s="80">
         <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
+        <v>0</v>
       </c>
       <c r="Y22" s="80" t="str">
         <f t="shared" si="1"/>
@@ -17707,7 +17692,7 @@
       </c>
       <c r="Z22" s="81">
         <f t="shared" si="1"/>
-        <v>0.66666666666666674</v>
+        <v>0</v>
       </c>
       <c r="AA22" s="56"/>
       <c r="AB22" s="101">
@@ -17717,12 +17702,12 @@
       <c r="AC22" s="103"/>
       <c r="AD22" s="102">
         <f t="shared" si="2"/>
-        <v>3.8855909336211546E-2</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="103"/>
       <c r="AF22" s="102">
         <f t="shared" si="3"/>
-        <v>3.885590933621158E-2</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="187">
         <f t="shared" si="8"/>
@@ -17734,7 +17719,7 @@
       </c>
       <c r="AI22" s="188">
         <f t="shared" si="4"/>
-        <v>21.830913720000005</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="188" t="str">
         <f t="shared" si="4"/>
@@ -17742,7 +17727,7 @@
       </c>
       <c r="AK22" s="189">
         <f t="shared" si="4"/>
-        <v>43.797600000000003</v>
+        <v>0</v>
       </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="56"/>
@@ -17757,7 +17742,7 @@
       </c>
       <c r="C23" s="152">
         <f>'Household Input'!C24</f>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D23" s="32" t="s">
         <v>144</v>
@@ -17768,21 +17753,21 @@
       </c>
       <c r="F23" s="39">
         <f>GreenStyleUser!C23*GreenStyleUser!E23</f>
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="G23" s="40"/>
       <c r="H23" s="40">
         <f>F23*0.5*VLOOKUP(Start!B15,'back end data'!A83:G84,4,FALSE)</f>
-        <v>2.5658175277777775</v>
+        <v>1.829064661111111</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="41">
         <f>F23*0.5*VLOOKUP(Start!B15,'back end data'!A83:G84,6,FALSE)</f>
-        <v>5.1475925925925923</v>
+        <v>2.2061111111111109</v>
       </c>
       <c r="K23" s="30">
         <f t="shared" si="5"/>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="L23" s="31">
         <f t="shared" si="0"/>
@@ -17790,7 +17775,7 @@
       </c>
       <c r="M23" s="256">
         <f t="shared" si="0"/>
-        <v>133.78172589833332</v>
+        <v>95.367431430333326</v>
       </c>
       <c r="N23" s="31">
         <f t="shared" si="0"/>
@@ -17798,11 +17783,11 @@
       </c>
       <c r="O23" s="32">
         <f t="shared" si="0"/>
-        <v>268.39547777777778</v>
+        <v>115.02663333333332</v>
       </c>
       <c r="P23" s="72">
         <f>'household calculator'!G20</f>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="Q23" s="73">
         <f>'household calculator'!H20</f>
@@ -17810,7 +17795,7 @@
       </c>
       <c r="R23" s="252">
         <f>'household calculator'!I20</f>
-        <v>133.78172589833332</v>
+        <v>95.367431430333326</v>
       </c>
       <c r="S23" s="73">
         <f>'household calculator'!J20</f>
@@ -17818,7 +17803,7 @@
       </c>
       <c r="T23" s="73">
         <f>'household calculator'!K20</f>
-        <v>268.39547777777778</v>
+        <v>115.02663333333332</v>
       </c>
       <c r="U23" s="130"/>
       <c r="V23" s="79">
@@ -18215,18 +18200,18 @@
       </c>
       <c r="B27" s="30" t="str">
         <f>'Style Change'!C13</f>
-        <v>LCD TV</v>
+        <v>LED TV</v>
       </c>
       <c r="C27" s="152">
         <f>'Household Input'!C28</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="32" t="s">
         <v>171</v>
       </c>
       <c r="E27" s="89">
         <f>VLOOKUP(B27,'back end data'!A50:B52,2,FALSE)</f>
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="39">
         <v>0</v>
@@ -18234,12 +18219,12 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40">
         <f>J27*'back end data'!$B$63</f>
-        <v>0</v>
+        <v>4.1454500000000005E-2</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="41">
         <f>C27*E27</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="K27" s="30">
         <f t="shared" si="5"/>
@@ -18251,7 +18236,7 @@
       </c>
       <c r="M27" s="256">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.1614376300000004</v>
       </c>
       <c r="N27" s="31">
         <f t="shared" si="5"/>
@@ -18259,7 +18244,7 @@
       </c>
       <c r="O27" s="32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.6070000000000002</v>
       </c>
       <c r="P27" s="72">
         <f>'household calculator'!G24</f>
@@ -18271,7 +18256,7 @@
       </c>
       <c r="R27" s="252">
         <f>'household calculator'!I24</f>
-        <v>0</v>
+        <v>7.7811754679999989</v>
       </c>
       <c r="S27" s="73">
         <f>'household calculator'!J24</f>
@@ -18279,7 +18264,7 @@
       </c>
       <c r="T27" s="73">
         <f>'household calculator'!K24</f>
-        <v>0</v>
+        <v>9.3851999999999993</v>
       </c>
       <c r="U27" s="130"/>
       <c r="V27" s="79" t="str">
@@ -18290,17 +18275,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X27" s="80" t="str">
+      <c r="X27" s="80">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0.72222222222222221</v>
       </c>
       <c r="Y27" s="80" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z27" s="81" t="str">
+      <c r="Z27" s="81">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0.72222222222222221</v>
       </c>
       <c r="AA27" s="56"/>
       <c r="AB27" s="101">
@@ -18310,12 +18295,12 @@
       <c r="AC27" s="103"/>
       <c r="AD27" s="102">
         <f t="shared" ref="AD27:AD34" si="9">(R27-M27)/(R$34-M$34)</f>
-        <v>0</v>
+        <v>3.7297731532841111E-3</v>
       </c>
       <c r="AE27" s="103"/>
       <c r="AF27" s="102">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.7297731532841142E-3</v>
       </c>
       <c r="AG27" s="187" t="str">
         <f t="shared" si="8"/>
@@ -18325,17 +18310,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AI27" s="188" t="str">
+      <c r="AI27" s="188">
         <f t="shared" si="8"/>
-        <v/>
+        <v>5.6197378379999989</v>
       </c>
       <c r="AJ27" s="188" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AK27" s="189" t="str">
+      <c r="AK27" s="189">
         <f t="shared" si="8"/>
-        <v/>
+        <v>6.7781999999999991</v>
       </c>
       <c r="AL27" s="56"/>
       <c r="AM27" s="56"/>
@@ -18350,7 +18335,7 @@
       </c>
       <c r="C28" s="152">
         <f>'Household Input'!C29</f>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D28" s="32" t="s">
         <v>178</v>
@@ -18365,12 +18350,12 @@
       <c r="G28" s="40"/>
       <c r="H28" s="40">
         <f>J28*'back end data'!$B$63</f>
-        <v>2.6168624999999999</v>
+        <v>1.4509075</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="41">
         <f>7*C28*E28</f>
-        <v>5.25</v>
+        <v>1.75</v>
       </c>
       <c r="K28" s="30">
         <f t="shared" si="5"/>
@@ -18382,7 +18367,7 @@
       </c>
       <c r="M28" s="256">
         <f t="shared" si="5"/>
-        <v>136.44321074999999</v>
+        <v>75.650317049999998</v>
       </c>
       <c r="N28" s="31">
         <f t="shared" si="5"/>
@@ -18390,7 +18375,7 @@
       </c>
       <c r="O28" s="32">
         <f t="shared" si="5"/>
-        <v>273.73500000000001</v>
+        <v>91.245000000000005</v>
       </c>
       <c r="P28" s="72">
         <f>'household calculator'!G25</f>
@@ -18402,7 +18387,7 @@
       </c>
       <c r="R28" s="252">
         <f>'household calculator'!I25</f>
-        <v>136.44321074999999</v>
+        <v>75.650317049999998</v>
       </c>
       <c r="S28" s="73">
         <f>'household calculator'!J25</f>
@@ -18410,7 +18395,7 @@
       </c>
       <c r="T28" s="73">
         <f>'household calculator'!K25</f>
-        <v>273.73500000000001</v>
+        <v>91.245000000000005</v>
       </c>
       <c r="U28" s="130"/>
       <c r="V28" s="79" t="str">
@@ -18481,7 +18466,7 @@
       </c>
       <c r="C29" s="152">
         <f>'Household Input'!C30</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D29" s="32" t="s">
         <v>178</v>
@@ -18496,12 +18481,12 @@
       <c r="G29" s="40"/>
       <c r="H29" s="40">
         <f>J29*'back end data'!$B$63</f>
-        <v>2.6168625000000001E-2</v>
+        <v>2.9018150000000003E-2</v>
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="41">
         <f>7*C29*E29</f>
-        <v>5.2499999999999998E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="K29" s="30">
         <f t="shared" si="5"/>
@@ -18513,7 +18498,7 @@
       </c>
       <c r="M29" s="256">
         <f t="shared" si="5"/>
-        <v>1.3644321075000001</v>
+        <v>1.5130063410000001</v>
       </c>
       <c r="N29" s="31">
         <f t="shared" si="5"/>
@@ -18521,7 +18506,7 @@
       </c>
       <c r="O29" s="32">
         <f t="shared" si="5"/>
-        <v>2.7373499999999997</v>
+        <v>1.8249000000000002</v>
       </c>
       <c r="P29" s="72">
         <f>'household calculator'!G26</f>
@@ -18533,7 +18518,7 @@
       </c>
       <c r="R29" s="252">
         <f>'household calculator'!I26</f>
-        <v>1.3644321075000001</v>
+        <v>1.5130063410000001</v>
       </c>
       <c r="S29" s="73">
         <f>'household calculator'!J26</f>
@@ -18541,7 +18526,7 @@
       </c>
       <c r="T29" s="73">
         <f>'household calculator'!K26</f>
-        <v>2.7373499999999997</v>
+        <v>1.8249000000000002</v>
       </c>
       <c r="U29" s="130"/>
       <c r="V29" s="79" t="str">
@@ -18941,7 +18926,7 @@
       </c>
       <c r="C33" s="156">
         <f>'Household Input'!C34</f>
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D33" s="38" t="s">
         <v>178</v>
@@ -18956,12 +18941,12 @@
       <c r="G33" s="43"/>
       <c r="H33" s="43">
         <f>J33*'back end data'!B63</f>
-        <v>2.0934900000000001</v>
+        <v>1.6250164</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="44">
         <f>C33*4*7*E33</f>
-        <v>4.2</v>
+        <v>1.96</v>
       </c>
       <c r="K33" s="36">
         <f t="shared" si="10"/>
@@ -18973,7 +18958,7 @@
       </c>
       <c r="M33" s="257">
         <f t="shared" si="10"/>
-        <v>109.1545686</v>
+        <v>84.728355096000001</v>
       </c>
       <c r="N33" s="37">
         <f t="shared" si="10"/>
@@ -18981,7 +18966,7 @@
       </c>
       <c r="O33" s="38">
         <f t="shared" si="10"/>
-        <v>218.988</v>
+        <v>102.1944</v>
       </c>
       <c r="P33" s="74">
         <f>'household calculator'!G30</f>
@@ -18993,7 +18978,7 @@
       </c>
       <c r="R33" s="253">
         <f>'household calculator'!I30</f>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="S33" s="75">
         <f>'household calculator'!J30</f>
@@ -19001,7 +18986,7 @@
       </c>
       <c r="T33" s="75">
         <f>'household calculator'!K30</f>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
       <c r="U33" s="130"/>
       <c r="V33" s="82" t="str">
@@ -19014,7 +18999,7 @@
       </c>
       <c r="X33" s="83">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.23076923076923073</v>
       </c>
       <c r="Y33" s="83" t="str">
         <f t="shared" si="6"/>
@@ -19022,7 +19007,7 @@
       </c>
       <c r="Z33" s="84">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.23076923076923078</v>
       </c>
       <c r="AA33" s="56"/>
       <c r="AB33" s="104">
@@ -19032,12 +19017,12 @@
       <c r="AC33" s="105"/>
       <c r="AD33" s="106">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.6870050877931208E-2</v>
       </c>
       <c r="AE33" s="105"/>
       <c r="AF33" s="106">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.6870050877931229E-2</v>
       </c>
       <c r="AG33" s="193" t="str">
         <f t="shared" si="8"/>
@@ -19049,7 +19034,7 @@
       </c>
       <c r="AI33" s="194">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>25.418506528799995</v>
       </c>
       <c r="AJ33" s="194" t="str">
         <f t="shared" si="8"/>
@@ -19057,7 +19042,7 @@
       </c>
       <c r="AK33" s="195">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30.658320000000003</v>
       </c>
       <c r="AL33" s="56"/>
       <c r="AM33" s="56"/>
@@ -19070,7 +19055,7 @@
       <c r="E34" s="58"/>
       <c r="F34" s="59">
         <f>SUM(F10:F33)</f>
-        <v>1017.48</v>
+        <v>1414.89</v>
       </c>
       <c r="G34" s="59">
         <f t="shared" ref="G34:L34" si="11">SUM(G10:G31)</f>
@@ -19078,7 +19063,7 @@
       </c>
       <c r="H34" s="59">
         <f>SUM(H10:H33)</f>
-        <v>19.692568758333334</v>
+        <v>41.189037664814812</v>
       </c>
       <c r="I34" s="59">
         <f t="shared" si="11"/>
@@ -19086,11 +19071,11 @@
       </c>
       <c r="J34" s="59">
         <f>SUM(J10:J33)</f>
-        <v>36.229407407407408</v>
+        <v>48.040712962962957</v>
       </c>
       <c r="K34" s="59">
         <f>SUM(K10:K33)</f>
-        <v>53051.407199999994</v>
+        <v>73772.364600000001</v>
       </c>
       <c r="L34" s="59">
         <f t="shared" si="11"/>
@@ -19098,7 +19083,7 @@
       </c>
       <c r="M34" s="258">
         <f>SUM(M10:M33)</f>
-        <v>1026.7705350594999</v>
+        <v>2147.5964238434444</v>
       </c>
       <c r="N34" s="59">
         <f>SUM(N10:N33)</f>
@@ -19106,11 +19091,11 @@
       </c>
       <c r="O34" s="59">
         <f>SUM(O10:O33)</f>
-        <v>1889.0013022222224</v>
+        <v>2504.8427738888886</v>
       </c>
       <c r="P34" s="198">
         <f>'household calculator'!G31</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="Q34" s="76">
         <f>'household calculator'!H31</f>
@@ -19118,7 +19103,7 @@
       </c>
       <c r="R34" s="254">
         <f>'household calculator'!I31</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="S34" s="76">
         <f>'household calculator'!J31</f>
@@ -19126,12 +19111,12 @@
       </c>
       <c r="T34" s="76">
         <f>'household calculator'!K31</f>
-        <v>3016.1812022222216</v>
+        <v>4322.1650938888879</v>
       </c>
       <c r="U34" s="183"/>
       <c r="V34" s="184">
         <f>IF(P34&lt;&gt;0,(P34-K34)/P34,"")</f>
-        <v>0.45593668957035538</v>
+        <v>0.40044239350139205</v>
       </c>
       <c r="W34" s="185" t="str">
         <f t="shared" ref="W34:Z34" si="12">IF(Q34&lt;&gt;0,(Q34-L34)/Q34,"")</f>
@@ -19139,7 +19124,7 @@
       </c>
       <c r="X34" s="185">
         <f t="shared" si="12"/>
-        <v>0.35366870041544468</v>
+        <v>0.41231301187199099</v>
       </c>
       <c r="Y34" s="185" t="str">
         <f t="shared" si="12"/>
@@ -19147,7 +19132,7 @@
       </c>
       <c r="Z34" s="186">
         <f t="shared" si="12"/>
-        <v>0.3737109359243837</v>
+        <v>0.42046573430744527</v>
       </c>
       <c r="AA34" s="129"/>
       <c r="AB34" s="100">
@@ -19166,7 +19151,7 @@
       </c>
       <c r="AG34" s="196">
         <f t="shared" ref="AG34:AK34" si="13">IF(P34&lt;&gt;0,(P34-K34),"")</f>
-        <v>44458.213800000005</v>
+        <v>49272.3</v>
       </c>
       <c r="AH34" s="196" t="str">
         <f t="shared" si="13"/>
@@ -19174,7 +19159,7 @@
       </c>
       <c r="AI34" s="196">
         <f t="shared" si="13"/>
-        <v>561.84282115500014</v>
+        <v>1506.7237622888006</v>
       </c>
       <c r="AJ34" s="196" t="str">
         <f t="shared" si="13"/>
@@ -19182,7 +19167,7 @@
       </c>
       <c r="AK34" s="197">
         <f t="shared" si="13"/>
-        <v>1127.1798999999992</v>
+        <v>1817.3223199999993</v>
       </c>
       <c r="AL34" s="129"/>
       <c r="AM34" s="129"/>
@@ -19245,13 +19230,13 @@
       <c r="S36" s="56"/>
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
-      <c r="V36" s="342" t="s">
+      <c r="V36" s="357" t="s">
         <v>329</v>
       </c>
-      <c r="W36" s="342"/>
-      <c r="X36" s="342"/>
-      <c r="Y36" s="342"/>
-      <c r="Z36" s="342"/>
+      <c r="W36" s="357"/>
+      <c r="X36" s="357"/>
+      <c r="Y36" s="357"/>
+      <c r="Z36" s="357"/>
       <c r="AA36" s="56"/>
       <c r="AG36" s="56"/>
       <c r="AH36" s="56"/>
@@ -19267,11 +19252,11 @@
       </c>
       <c r="G66" s="19">
         <f>F10</f>
-        <v>577.5</v>
+        <v>1155</v>
       </c>
       <c r="L66" s="19">
         <f>SUM(J18:J19)</f>
-        <v>0.29801851851851852</v>
+        <v>0.14900925925925926</v>
       </c>
     </row>
     <row r="67" spans="6:12" x14ac:dyDescent="0.35">
@@ -19280,11 +19265,11 @@
       </c>
       <c r="G67" s="19">
         <f>F12</f>
-        <v>122.5</v>
+        <v>73.5</v>
       </c>
       <c r="L67" s="19">
         <f>J22</f>
-        <v>0.42</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="68" spans="6:12" x14ac:dyDescent="0.35">
@@ -19293,11 +19278,11 @@
       </c>
       <c r="G68" s="19">
         <f>SUM(F13:F15)</f>
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="L68" s="19">
         <f>SUM(J27:J30)</f>
-        <v>5.3025000000000002</v>
+        <v>1.835</v>
       </c>
     </row>
     <row r="69" spans="6:12" x14ac:dyDescent="0.35">
@@ -19306,11 +19291,11 @@
       </c>
       <c r="G69" s="19">
         <f>F18</f>
-        <v>49.98</v>
+        <v>24.99</v>
       </c>
       <c r="L69" s="19">
         <f>J33</f>
-        <v>4.2</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="70" spans="6:12" x14ac:dyDescent="0.35">
@@ -19319,7 +19304,7 @@
       </c>
       <c r="G70" s="19">
         <f>SUM(F23:F24)</f>
-        <v>210</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -19384,7 +19369,7 @@
   </sheetPr>
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B28" sqref="B28:B31"/>
     </sheetView>
   </sheetViews>
@@ -19402,7 +19387,7 @@
       </c>
       <c r="B1" s="259" t="str">
         <f>Start!B7</f>
-        <v>Shravan Kumar</v>
+        <v>Annalisa Mansukhani</v>
       </c>
       <c r="E1" s="276" t="s">
         <v>636</v>
@@ -19439,7 +19424,7 @@
       </c>
       <c r="B3" s="263" t="str">
         <f>Start!B10</f>
-        <v>Male</v>
+        <v>female</v>
       </c>
       <c r="E3" s="262" t="s">
         <v>666</v>
@@ -19477,7 +19462,7 @@
       </c>
       <c r="B5" s="263" t="str">
         <f>Start!B14</f>
-        <v xml:space="preserve"> United States</v>
+        <v xml:space="preserve"> India</v>
       </c>
       <c r="E5" s="298" t="s">
         <v>668</v>
@@ -19529,7 +19514,7 @@
       </c>
       <c r="B8" s="267">
         <f>'total footprint report'!B16</f>
-        <v>57562.559999999998</v>
+        <v>113143.8</v>
       </c>
       <c r="E8" s="262" t="s">
         <v>671</v>
@@ -19548,7 +19533,7 @@
       </c>
       <c r="B9" s="267">
         <f>'total footprint report'!B17</f>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="E9" s="262" t="s">
         <v>672</v>
@@ -19567,7 +19552,7 @@
       </c>
       <c r="B10" s="267">
         <f>'total footprint report'!B18</f>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="E10" s="262" t="s">
         <v>673</v>
@@ -19584,7 +19569,7 @@
       <c r="A11" s="271"/>
       <c r="B11" s="267">
         <f>'total footprint report'!B19</f>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="E11" s="262" t="s">
         <v>674</v>
@@ -19603,7 +19588,7 @@
       </c>
       <c r="B12" s="267">
         <f>'total footprint report'!B20</f>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="E12" s="262" t="s">
         <v>675</v>
@@ -19622,7 +19607,7 @@
       </c>
       <c r="B13" s="267">
         <f>'total footprint report'!B21</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="E13" s="262" t="s">
         <v>676</v>
@@ -19655,7 +19640,7 @@
       </c>
       <c r="B15" s="267">
         <f>'total footprint report'!B28</f>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
       <c r="E15" s="262" t="s">
         <v>678</v>
@@ -19674,7 +19659,7 @@
       </c>
       <c r="B16" s="267">
         <f>'total footprint report'!B29</f>
-        <v>276.47235000000001</v>
+        <v>93.069900000000004</v>
       </c>
       <c r="E16" s="262" t="s">
         <v>679</v>
@@ -19693,7 +19678,7 @@
       </c>
       <c r="B17" s="267">
         <f>'total footprint report'!B30</f>
-        <v>0</v>
+        <v>9.3851999999999993</v>
       </c>
       <c r="E17" s="260" t="s">
         <v>680</v>
@@ -19712,7 +19697,7 @@
       </c>
       <c r="B18" s="267">
         <f>'total footprint report'!B31</f>
-        <v>208.97808555555557</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="E18" s="55"/>
     </row>
@@ -19723,7 +19708,7 @@
       </c>
       <c r="B19" s="267">
         <f>'total footprint report'!B32</f>
-        <v>2311.7427666666667</v>
+        <v>4079.0879311111112</v>
       </c>
       <c r="E19" s="55"/>
     </row>
@@ -19733,7 +19718,7 @@
       </c>
       <c r="B20" s="267">
         <f>'total footprint report'!B33</f>
-        <v>3016.1812022222221</v>
+        <v>4322.1650938888888</v>
       </c>
       <c r="E20" s="276" t="s">
         <v>681</v>
@@ -19756,7 +19741,7 @@
       </c>
       <c r="G21" s="263">
         <f>VLOOKUP(Start!B15,'back end data'!A76:G77,4,FALSE)</f>
-        <v>1.8005737037037037E-2</v>
+        <v>2.9949596790123458E-2</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -19765,7 +19750,7 @@
       </c>
       <c r="B22" s="265">
         <f>'total footprint report'!B40</f>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="E22" s="304" t="s">
         <v>683</v>
@@ -19775,7 +19760,7 @@
       </c>
       <c r="G22" s="263">
         <f>VLOOKUP(Start!B14,'Electricity mix footprint'!A7:D67,4,FALSE)</f>
-        <v>0.49845</v>
+        <v>0.82908999999999999</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
@@ -19784,7 +19769,7 @@
       </c>
       <c r="B23" s="267">
         <f>'total footprint report'!B41</f>
-        <v>137.80764285749999</v>
+        <v>84.944498858999992</v>
       </c>
       <c r="E23" s="304" t="s">
         <v>684</v>
@@ -19803,7 +19788,7 @@
       </c>
       <c r="B24" s="267">
         <f>'total footprint report'!B42</f>
-        <v>1152.288182045</v>
+        <v>3381.9310128049115</v>
       </c>
       <c r="E24" s="304" t="s">
         <v>685</v>
@@ -19822,7 +19807,7 @@
       </c>
       <c r="B25" s="267">
         <f>'total footprint report'!B43</f>
-        <v>189.36296271200001</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="E25" s="305" t="s">
         <v>686</v>
@@ -19860,7 +19845,7 @@
       </c>
       <c r="B27" s="269">
         <f>'total footprint report'!B45</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="E27" s="305" t="s">
         <v>688</v>
@@ -19878,7 +19863,7 @@
       </c>
       <c r="B28" s="259">
         <f>GreenStyleUser!M33</f>
-        <v>109.1545686</v>
+        <v>84.728355096000001</v>
       </c>
       <c r="E28" s="305" t="s">
         <v>689</v>
@@ -19896,7 +19881,7 @@
       </c>
       <c r="B29" s="263">
         <f>SUM(GreenStyleUser!M27:M30)</f>
-        <v>137.80764285749999</v>
+        <v>79.324761020999986</v>
       </c>
       <c r="E29" s="305" t="s">
         <v>690</v>
@@ -19915,7 +19900,7 @@
       </c>
       <c r="B30" s="263">
         <f>SUM(GreenStyleUser!M10:M15,GreenStyleUser!M22:M25)</f>
-        <v>686.86522981999997</v>
+        <v>1906.2454948829111</v>
       </c>
       <c r="E30" s="304" t="s">
         <v>691</v>
@@ -19934,7 +19919,7 @@
       </c>
       <c r="B31" s="263">
         <f>SUM(GreenStyleUser!M18:M19)</f>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="E31" s="304" t="s">
         <v>692</v>
@@ -19972,7 +19957,7 @@
       </c>
       <c r="B33" s="261">
         <f>SUM(B28:B32)</f>
-        <v>1026.7705350594999</v>
+        <v>2147.5964238434444</v>
       </c>
       <c r="E33" s="304" t="s">
         <v>694</v>
@@ -19991,7 +19976,7 @@
       </c>
       <c r="B34" s="294">
         <f>GreenUser!M33</f>
-        <v>36.384856200000002</v>
+        <v>60.520253640000007</v>
       </c>
       <c r="E34" s="304" t="s">
         <v>695</v>
@@ -20001,7 +19986,7 @@
       </c>
       <c r="G34" s="263">
         <f>VLOOKUP('Style Change'!C13,'back end data'!A50:B52,2,FALSE)</f>
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -20010,7 +19995,7 @@
       </c>
       <c r="B35" s="295">
         <f>SUM(GreenUser!M27:M30)</f>
-        <v>102.13748919000001</v>
+        <v>158.64952204199997</v>
       </c>
       <c r="E35" s="304" t="s">
         <v>696</v>
@@ -20029,7 +20014,7 @@
       </c>
       <c r="B36" s="295">
         <f>SUM(GreenUser!M10:M15,GreenUser!M22:M24)</f>
-        <v>414.49538343888889</v>
+        <v>689.44523513962963</v>
       </c>
       <c r="E36" s="304" t="s">
         <v>697</v>
@@ -20048,7 +20033,7 @@
       </c>
       <c r="B37" s="295">
         <f>SUM(GreenUser!M18:M19)</f>
-        <v>66.387924130000002</v>
+        <v>110.42544691933334</v>
       </c>
       <c r="E37" s="304" t="s">
         <v>698</v>
@@ -20086,7 +20071,7 @@
       </c>
       <c r="B39" s="297">
         <f>SUM(B34:B38)</f>
-        <v>619.40565295888894</v>
+        <v>1019.0404577409629</v>
       </c>
       <c r="E39" s="304" t="s">
         <v>705</v>
@@ -20096,7 +20081,7 @@
       </c>
       <c r="G39" s="308">
         <f>VLOOKUP(Start!B15,'back end data'!A80:I81,8,FALSE)</f>
-        <v>0.25465256666666669</v>
+        <v>0.4235728688888889</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -20112,7 +20097,7 @@
       </c>
       <c r="G40" s="307">
         <f>VLOOKUP(Start!B15,'back end data'!A83:G84,4,FALSE)</f>
-        <v>2.4436357407407405E-2</v>
+        <v>4.0645881358024688E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -20466,97 +20451,97 @@
     </row>
     <row r="6" spans="1:39" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56"/>
-      <c r="B6" s="349" t="s">
+      <c r="B6" s="364" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="350"/>
-      <c r="D6" s="351"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="366"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="355" t="s">
+      <c r="F6" s="370" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="356"/>
-      <c r="H6" s="356"/>
-      <c r="I6" s="356"/>
-      <c r="J6" s="357"/>
-      <c r="K6" s="395" t="s">
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="410" t="s">
         <v>317</v>
       </c>
-      <c r="L6" s="396"/>
-      <c r="M6" s="396"/>
-      <c r="N6" s="396"/>
-      <c r="O6" s="397"/>
-      <c r="P6" s="367" t="s">
+      <c r="L6" s="411"/>
+      <c r="M6" s="411"/>
+      <c r="N6" s="411"/>
+      <c r="O6" s="412"/>
+      <c r="P6" s="382" t="s">
         <v>318</v>
       </c>
-      <c r="Q6" s="368"/>
-      <c r="R6" s="368"/>
-      <c r="S6" s="368"/>
-      <c r="T6" s="368"/>
+      <c r="Q6" s="383"/>
+      <c r="R6" s="383"/>
+      <c r="S6" s="383"/>
+      <c r="T6" s="383"/>
       <c r="U6" s="182"/>
-      <c r="V6" s="336" t="s">
+      <c r="V6" s="351" t="s">
         <v>521</v>
       </c>
-      <c r="W6" s="337"/>
-      <c r="X6" s="337"/>
-      <c r="Y6" s="337"/>
-      <c r="Z6" s="338"/>
+      <c r="W6" s="352"/>
+      <c r="X6" s="352"/>
+      <c r="Y6" s="352"/>
+      <c r="Z6" s="353"/>
       <c r="AA6" s="56"/>
-      <c r="AB6" s="343" t="s">
+      <c r="AB6" s="358" t="s">
         <v>330</v>
       </c>
-      <c r="AC6" s="344"/>
-      <c r="AD6" s="344"/>
-      <c r="AE6" s="344"/>
-      <c r="AF6" s="345"/>
-      <c r="AG6" s="336" t="s">
+      <c r="AC6" s="359"/>
+      <c r="AD6" s="359"/>
+      <c r="AE6" s="359"/>
+      <c r="AF6" s="360"/>
+      <c r="AG6" s="351" t="s">
         <v>522</v>
       </c>
-      <c r="AH6" s="337"/>
-      <c r="AI6" s="337"/>
-      <c r="AJ6" s="337"/>
-      <c r="AK6" s="338"/>
+      <c r="AH6" s="352"/>
+      <c r="AI6" s="352"/>
+      <c r="AJ6" s="352"/>
+      <c r="AK6" s="353"/>
       <c r="AL6" s="56"/>
       <c r="AM6" s="56"/>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="56"/>
-      <c r="B7" s="352"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="354"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="368"/>
+      <c r="D7" s="369"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="359"/>
-      <c r="J7" s="360"/>
-      <c r="K7" s="398"/>
-      <c r="L7" s="399"/>
-      <c r="M7" s="399"/>
-      <c r="N7" s="399"/>
-      <c r="O7" s="400"/>
-      <c r="P7" s="369"/>
-      <c r="Q7" s="370"/>
-      <c r="R7" s="370"/>
-      <c r="S7" s="370"/>
-      <c r="T7" s="370"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="375"/>
+      <c r="K7" s="413"/>
+      <c r="L7" s="414"/>
+      <c r="M7" s="414"/>
+      <c r="N7" s="414"/>
+      <c r="O7" s="415"/>
+      <c r="P7" s="384"/>
+      <c r="Q7" s="385"/>
+      <c r="R7" s="385"/>
+      <c r="S7" s="385"/>
+      <c r="T7" s="385"/>
       <c r="U7" s="182"/>
-      <c r="V7" s="339"/>
-      <c r="W7" s="340"/>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="341"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="355"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="356"/>
       <c r="AA7" s="56"/>
-      <c r="AB7" s="346"/>
-      <c r="AC7" s="347"/>
-      <c r="AD7" s="347"/>
-      <c r="AE7" s="347"/>
-      <c r="AF7" s="348"/>
-      <c r="AG7" s="339"/>
-      <c r="AH7" s="340"/>
-      <c r="AI7" s="340"/>
-      <c r="AJ7" s="340"/>
-      <c r="AK7" s="341"/>
+      <c r="AB7" s="361"/>
+      <c r="AC7" s="362"/>
+      <c r="AD7" s="362"/>
+      <c r="AE7" s="362"/>
+      <c r="AF7" s="363"/>
+      <c r="AG7" s="354"/>
+      <c r="AH7" s="355"/>
+      <c r="AI7" s="355"/>
+      <c r="AJ7" s="355"/>
+      <c r="AK7" s="356"/>
       <c r="AL7" s="56"/>
       <c r="AM7" s="56"/>
     </row>
@@ -20756,7 +20741,7 @@
       <c r="G10" s="40"/>
       <c r="H10" s="40">
         <f>F10*VLOOKUP(Start!B15,'back end data'!A76:G77,4,FALSE)</f>
-        <v>1.980631074074074</v>
+        <v>3.2944556469135806</v>
       </c>
       <c r="I10" s="31"/>
       <c r="J10" s="32">
@@ -20773,7 +20758,7 @@
       </c>
       <c r="M10" s="256">
         <f t="shared" si="0"/>
-        <v>103.27010420222221</v>
+        <v>171.7729174300741</v>
       </c>
       <c r="N10" s="31">
         <f t="shared" si="0"/>
@@ -20785,7 +20770,7 @@
       </c>
       <c r="P10" s="72">
         <f>'household calculator'!G7</f>
-        <v>54747</v>
+        <v>109494</v>
       </c>
       <c r="Q10" s="73">
         <f>'household calculator'!H7</f>
@@ -20793,7 +20778,7 @@
       </c>
       <c r="R10" s="252">
         <f>'household calculator'!I7</f>
-        <v>985.7600855666667</v>
+        <v>3279.3011509377779</v>
       </c>
       <c r="S10" s="73">
         <f>'household calculator'!J7</f>
@@ -20801,12 +20786,12 @@
       </c>
       <c r="T10" s="73">
         <f>'household calculator'!K7</f>
-        <v>1977.6508888888889</v>
+        <v>3955.3017777777777</v>
       </c>
       <c r="U10" s="130"/>
       <c r="V10" s="79">
         <f>IF(P10&lt;&gt;0,(P10-K10)/P10,"")</f>
-        <v>0.89523809523809517</v>
+        <v>0.94761904761904769</v>
       </c>
       <c r="W10" s="80" t="str">
         <f t="shared" ref="W10:Z25" si="1">IF(Q10&lt;&gt;0,(Q10-L10)/Q10,"")</f>
@@ -20814,7 +20799,7 @@
       </c>
       <c r="X10" s="80">
         <f t="shared" si="1"/>
-        <v>0.89523809523809528</v>
+        <v>0.94761904761904769</v>
       </c>
       <c r="Y10" s="80" t="str">
         <f t="shared" si="1"/>
@@ -20822,26 +20807,26 @@
       </c>
       <c r="Z10" s="81">
         <f t="shared" si="1"/>
-        <v>0.89523809523809528</v>
+        <v>0.94761904761904769</v>
       </c>
       <c r="AA10" s="56"/>
       <c r="AB10" s="101">
         <f>(P10-K10)/(P$34-K$34)</f>
-        <v>0.88558104479721134</v>
+        <v>1.2828860423287929</v>
       </c>
       <c r="AC10" s="102"/>
       <c r="AD10" s="102">
         <f t="shared" ref="AD10:AD25" si="2">(R10-M10)/(R$34-M$34)</f>
-        <v>0.91052720526273356</v>
+        <v>1.1792024201562497</v>
       </c>
       <c r="AE10" s="102"/>
       <c r="AF10" s="102">
         <f t="shared" ref="AF10:AF34" si="3">(T10-O10)/(T$34-O$34)</f>
-        <v>0.93398479953695379</v>
+        <v>1.1657689681287702</v>
       </c>
       <c r="AG10" s="187">
         <f>IF(P10&lt;&gt;0,(P10-K10),"")</f>
-        <v>49011.6</v>
+        <v>103758.6</v>
       </c>
       <c r="AH10" s="188" t="str">
         <f t="shared" ref="AH10:AK25" si="4">IF(Q10&lt;&gt;0,(Q10-L10),"")</f>
@@ -20849,7 +20834,7 @@
       </c>
       <c r="AI10" s="188">
         <f t="shared" si="4"/>
-        <v>882.48998136444447</v>
+        <v>3107.528233507704</v>
       </c>
       <c r="AJ10" s="188" t="str">
         <f t="shared" si="4"/>
@@ -20857,7 +20842,7 @@
       </c>
       <c r="AK10" s="189">
         <f t="shared" si="4"/>
-        <v>1770.4684148148149</v>
+        <v>3748.1193037037037</v>
       </c>
       <c r="AL10" s="56"/>
       <c r="AM10" s="56"/>
@@ -21047,7 +21032,7 @@
       </c>
       <c r="P12" s="72">
         <f>'household calculator'!G9</f>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="Q12" s="73">
         <f>'household calculator'!H9</f>
@@ -21068,7 +21053,7 @@
       <c r="U12" s="130"/>
       <c r="V12" s="79">
         <f t="shared" si="6"/>
-        <v>0.7846153846153846</v>
+        <v>-0.33333333333333343</v>
       </c>
       <c r="W12" s="80" t="str">
         <f t="shared" si="1"/>
@@ -21089,7 +21074,7 @@
       <c r="AA12" s="56"/>
       <c r="AB12" s="101">
         <f t="shared" si="7"/>
-        <v>0.33633237552404732</v>
+        <v>-1.5794325646761521E-2</v>
       </c>
       <c r="AC12" s="103"/>
       <c r="AD12" s="102">
@@ -21103,7 +21088,7 @@
       </c>
       <c r="AG12" s="187">
         <f t="shared" si="8"/>
-        <v>18613.98</v>
+        <v>-1277.4300000000003</v>
       </c>
       <c r="AH12" s="188" t="str">
         <f t="shared" si="4"/>
@@ -21177,7 +21162,7 @@
       </c>
       <c r="P13" s="72">
         <f>'household calculator'!G10</f>
-        <v>0</v>
+        <v>2189.88</v>
       </c>
       <c r="Q13" s="73">
         <f>'household calculator'!H10</f>
@@ -21196,9 +21181,9 @@
         <v>0</v>
       </c>
       <c r="U13" s="130"/>
-      <c r="V13" s="79" t="str">
+      <c r="V13" s="79">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="W13" s="80" t="str">
         <f t="shared" si="1"/>
@@ -21219,7 +21204,7 @@
       <c r="AA13" s="56"/>
       <c r="AB13" s="101">
         <f t="shared" si="7"/>
-        <v>-3.9568514767534979E-2</v>
+        <v>0</v>
       </c>
       <c r="AC13" s="103"/>
       <c r="AD13" s="102">
@@ -21231,9 +21216,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG13" s="187" t="str">
+      <c r="AG13" s="187">
         <f t="shared" si="8"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="AH13" s="188" t="str">
         <f t="shared" si="4"/>
@@ -21307,7 +21292,7 @@
       </c>
       <c r="P14" s="72">
         <f>'household calculator'!G11</f>
-        <v>2554.86</v>
+        <v>1459.92</v>
       </c>
       <c r="Q14" s="73">
         <f>'household calculator'!H11</f>
@@ -21328,7 +21313,7 @@
       <c r="U14" s="130"/>
       <c r="V14" s="79">
         <f t="shared" si="6"/>
-        <v>-0.7142857142857143</v>
+        <v>-2</v>
       </c>
       <c r="W14" s="80" t="str">
         <f t="shared" si="1"/>
@@ -21349,7 +21334,7 @@
       <c r="AA14" s="56"/>
       <c r="AB14" s="101">
         <f t="shared" si="7"/>
-        <v>-3.2973762306279152E-2</v>
+        <v>-3.610131576402633E-2</v>
       </c>
       <c r="AC14" s="103"/>
       <c r="AD14" s="102">
@@ -21363,7 +21348,7 @@
       </c>
       <c r="AG14" s="187">
         <f t="shared" si="8"/>
-        <v>-1824.9</v>
+        <v>-2919.84</v>
       </c>
       <c r="AH14" s="188" t="str">
         <f t="shared" si="4"/>
@@ -21437,7 +21422,7 @@
       </c>
       <c r="P15" s="72">
         <f>'household calculator'!G12</f>
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="73">
         <f>'household calculator'!H12</f>
@@ -21456,9 +21441,9 @@
         <v>0</v>
       </c>
       <c r="U15" s="130"/>
-      <c r="V15" s="79">
+      <c r="V15" s="79" t="str">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="W15" s="80" t="str">
         <f t="shared" si="1"/>
@@ -21479,7 +21464,7 @@
       <c r="AA15" s="56"/>
       <c r="AB15" s="101">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>-3.2233317646452077E-3</v>
       </c>
       <c r="AC15" s="103"/>
       <c r="AD15" s="102">
@@ -21491,9 +21476,9 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="AG15" s="187">
+      <c r="AG15" s="187" t="str">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v/>
       </c>
       <c r="AH15" s="188" t="str">
         <f t="shared" si="4"/>
@@ -21735,7 +21720,7 @@
       <c r="G18" s="40"/>
       <c r="H18" s="40">
         <f>C18*VLOOKUP(Start!B15,'back end data'!A80:I81,8,FALSE)</f>
-        <v>1.2732628333333333</v>
+        <v>2.1178643444444445</v>
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="41">
@@ -21752,7 +21737,7 @@
       </c>
       <c r="M18" s="256">
         <f t="shared" si="0"/>
-        <v>66.387924130000002</v>
+        <v>110.42544691933334</v>
       </c>
       <c r="N18" s="31">
         <f t="shared" si="0"/>
@@ -21764,7 +21749,7 @@
       </c>
       <c r="P18" s="72">
         <f>'household calculator'!G15</f>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="Q18" s="73">
         <f>'household calculator'!H15</f>
@@ -21772,7 +21757,7 @@
       </c>
       <c r="R18" s="252">
         <f>'household calculator'!I15</f>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="S18" s="73">
         <f>'household calculator'!J15</f>
@@ -21780,12 +21765,12 @@
       </c>
       <c r="T18" s="73">
         <f>'household calculator'!K15</f>
-        <v>15.538685555555556</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="U18" s="130"/>
       <c r="V18" s="79">
         <f t="shared" si="6"/>
-        <v>0.63440860215053763</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="W18" s="80" t="str">
         <f t="shared" si="1"/>
@@ -21793,7 +21778,7 @@
       </c>
       <c r="X18" s="80">
         <f t="shared" si="1"/>
-        <v>0.28571428571428586</v>
+        <v>-0.4285714285714286</v>
       </c>
       <c r="Y18" s="80" t="str">
         <f t="shared" si="1"/>
@@ -21801,26 +21786,26 @@
       </c>
       <c r="Z18" s="81">
         <f t="shared" si="1"/>
-        <v>0.2857142857142857</v>
+        <v>-0.42857142857142866</v>
       </c>
       <c r="AA18" s="56"/>
       <c r="AB18" s="101">
         <f t="shared" si="7"/>
-        <v>5.8363559282114084E-2</v>
+        <v>-6.9043766398700348E-3</v>
       </c>
       <c r="AC18" s="103"/>
       <c r="AD18" s="102">
         <f t="shared" si="2"/>
-        <v>2.7398842954714491E-2</v>
+        <v>-1.2570822641292397E-2</v>
       </c>
       <c r="AE18" s="103"/>
       <c r="AF18" s="102">
         <f t="shared" si="3"/>
-        <v>2.3420591477750358E-3</v>
+        <v>-1.0356346719736923E-3</v>
       </c>
       <c r="AG18" s="187">
         <f t="shared" si="8"/>
-        <v>3230.0729999999994</v>
+        <v>-558.4194</v>
       </c>
       <c r="AH18" s="188" t="str">
         <f t="shared" si="4"/>
@@ -21828,7 +21813,7 @@
       </c>
       <c r="AI18" s="188">
         <f t="shared" si="4"/>
-        <v>26.555169652000018</v>
+        <v>-33.127634075800003</v>
       </c>
       <c r="AJ18" s="188" t="str">
         <f t="shared" si="4"/>
@@ -21836,7 +21821,7 @@
       </c>
       <c r="AK18" s="189">
         <f t="shared" si="4"/>
-        <v>4.4396244444444442</v>
+        <v>-3.329718333333334</v>
       </c>
       <c r="AL18" s="56"/>
       <c r="AM18" s="56"/>
@@ -21903,7 +21888,7 @@
       </c>
       <c r="R19" s="252">
         <f>'household calculator'!I16</f>
-        <v>96.419868930000007</v>
+        <v>0</v>
       </c>
       <c r="S19" s="73">
         <f>'household calculator'!J16</f>
@@ -21911,7 +21896,7 @@
       </c>
       <c r="T19" s="73">
         <f>'household calculator'!K16</f>
-        <v>193.43940000000001</v>
+        <v>0</v>
       </c>
       <c r="U19" s="130"/>
       <c r="V19" s="79" t="str">
@@ -21922,17 +21907,17 @@
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="X19" s="80">
+      <c r="X19" s="80" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="Y19" s="80" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="Z19" s="81">
+      <c r="Z19" s="81" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="AA19" s="56"/>
       <c r="AB19" s="101">
@@ -21942,12 +21927,12 @@
       <c r="AC19" s="103"/>
       <c r="AD19" s="102">
         <f t="shared" si="2"/>
-        <v>9.9483184673544625E-2</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="103"/>
       <c r="AF19" s="102">
         <f t="shared" si="3"/>
-        <v>0.1020461352034038</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="187" t="str">
         <f t="shared" si="8"/>
@@ -21957,17 +21942,17 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AI19" s="188">
+      <c r="AI19" s="188" t="str">
         <f t="shared" si="4"/>
-        <v>96.419868930000007</v>
+        <v/>
       </c>
       <c r="AJ19" s="188" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="AK19" s="189">
+      <c r="AK19" s="189" t="str">
         <f t="shared" si="4"/>
-        <v>193.43940000000001</v>
+        <v/>
       </c>
       <c r="AL19" s="56"/>
       <c r="AM19" s="56"/>
@@ -22193,7 +22178,7 @@
       <c r="G22" s="40"/>
       <c r="H22" s="40">
         <f>J22*'back end data'!B63</f>
-        <v>0.83739600000000003</v>
+        <v>1.3928711999999999</v>
       </c>
       <c r="I22" s="40"/>
       <c r="J22" s="41">
@@ -22210,7 +22195,7 @@
       </c>
       <c r="M22" s="256">
         <f t="shared" si="0"/>
-        <v>43.661827440000003</v>
+        <v>72.624304367999997</v>
       </c>
       <c r="N22" s="31">
         <f t="shared" si="0"/>
@@ -22222,7 +22207,7 @@
       </c>
       <c r="P22" s="72">
         <f>'household calculator'!G19</f>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="Q22" s="73">
         <f>'household calculator'!H19</f>
@@ -22230,7 +22215,7 @@
       </c>
       <c r="R22" s="252">
         <f>'household calculator'!I19</f>
-        <v>32.746370580000004</v>
+        <v>7.2624304368000008</v>
       </c>
       <c r="S22" s="73">
         <f>'household calculator'!J19</f>
@@ -22238,12 +22223,12 @@
       </c>
       <c r="T22" s="73">
         <f>'household calculator'!K19</f>
-        <v>65.696399999999997</v>
+        <v>8.7595200000000002</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="79">
         <f t="shared" si="6"/>
-        <v>-3</v>
+        <v>-9</v>
       </c>
       <c r="W22" s="80" t="str">
         <f t="shared" si="1"/>
@@ -22251,7 +22236,7 @@
       </c>
       <c r="X22" s="80">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333326</v>
+        <v>-8.9999999999999982</v>
       </c>
       <c r="Y22" s="80" t="str">
         <f t="shared" si="1"/>
@@ -22259,26 +22244,26 @@
       </c>
       <c r="Z22" s="81">
         <f t="shared" si="1"/>
-        <v>-0.33333333333333326</v>
+        <v>-9</v>
       </c>
       <c r="AA22" s="56"/>
       <c r="AB22" s="101">
         <f t="shared" si="7"/>
-        <v>-9.8921286918837448E-3</v>
+        <v>-8.1227960469059252E-3</v>
       </c>
       <c r="AC22" s="103"/>
       <c r="AD22" s="102">
         <f t="shared" si="2"/>
-        <v>-1.1262247321533352E-2</v>
+        <v>-2.4802632231797433E-2</v>
       </c>
       <c r="AE22" s="103"/>
       <c r="AF22" s="102">
         <f t="shared" si="3"/>
-        <v>-1.1552392664536277E-2</v>
+        <v>-2.452008110694737E-2</v>
       </c>
       <c r="AG22" s="187">
         <f t="shared" si="8"/>
-        <v>-547.47</v>
+        <v>-656.96400000000006</v>
       </c>
       <c r="AH22" s="188" t="str">
         <f t="shared" si="4"/>
@@ -22286,7 +22271,7 @@
       </c>
       <c r="AI22" s="188">
         <f t="shared" si="4"/>
-        <v>-10.915456859999999</v>
+        <v>-65.361873931199995</v>
       </c>
       <c r="AJ22" s="188" t="str">
         <f t="shared" si="4"/>
@@ -22294,7 +22279,7 @@
       </c>
       <c r="AK22" s="189">
         <f t="shared" si="4"/>
-        <v>-21.898799999999994</v>
+        <v>-78.835679999999996</v>
       </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="56"/>
@@ -22325,7 +22310,7 @@
       <c r="G23" s="40"/>
       <c r="H23" s="40">
         <f>F23*0.5*VLOOKUP(Start!B15,'back end data'!A83:G84,4,FALSE)</f>
-        <v>5.131635055555555</v>
+        <v>8.5356350851851843</v>
       </c>
       <c r="I23" s="40"/>
       <c r="J23" s="41">
@@ -22342,7 +22327,7 @@
       </c>
       <c r="M23" s="256">
         <f t="shared" si="0"/>
-        <v>267.56345179666664</v>
+        <v>445.04801334155553</v>
       </c>
       <c r="N23" s="31">
         <f t="shared" si="0"/>
@@ -22354,7 +22339,7 @@
       </c>
       <c r="P23" s="72">
         <f>'household calculator'!G20</f>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="Q23" s="73">
         <f>'household calculator'!H20</f>
@@ -22362,7 +22347,7 @@
       </c>
       <c r="R23" s="252">
         <f>'household calculator'!I20</f>
-        <v>133.78172589833332</v>
+        <v>95.367431430333326</v>
       </c>
       <c r="S23" s="73">
         <f>'household calculator'!J20</f>
@@ -22370,12 +22355,12 @@
       </c>
       <c r="T23" s="73">
         <f>'household calculator'!K20</f>
-        <v>268.39547777777778</v>
+        <v>115.02663333333332</v>
       </c>
       <c r="U23" s="130"/>
       <c r="V23" s="79">
         <f t="shared" si="6"/>
-        <v>-1</v>
+        <v>-3.6666666666666656</v>
       </c>
       <c r="W23" s="80" t="str">
         <f t="shared" si="1"/>
@@ -22383,7 +22368,7 @@
       </c>
       <c r="X23" s="80">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3.6666666666666665</v>
       </c>
       <c r="Y23" s="80" t="str">
         <f t="shared" si="1"/>
@@ -22391,26 +22376,26 @@
       </c>
       <c r="Z23" s="81">
         <f t="shared" si="1"/>
-        <v>-1</v>
+        <v>-3.666666666666667</v>
       </c>
       <c r="AA23" s="56"/>
       <c r="AB23" s="101">
         <f t="shared" si="7"/>
-        <v>-0.1978425738376749</v>
+        <v>-0.21273989646658367</v>
       </c>
       <c r="AC23" s="103"/>
       <c r="AD23" s="102">
         <f t="shared" si="2"/>
-        <v>-0.1380320497339782</v>
+        <v>-0.13269201676919751</v>
       </c>
       <c r="AE23" s="103"/>
       <c r="AF23" s="102">
         <f t="shared" si="3"/>
-        <v>-0.14158812120639991</v>
+        <v>-0.13118039178333432</v>
       </c>
       <c r="AG23" s="187">
         <f t="shared" si="8"/>
-        <v>-10949.4</v>
+        <v>-17206.199999999997</v>
       </c>
       <c r="AH23" s="188" t="str">
         <f t="shared" si="4"/>
@@ -22418,7 +22403,7 @@
       </c>
       <c r="AI23" s="188">
         <f t="shared" si="4"/>
-        <v>-133.78172589833332</v>
+        <v>-349.68058191122219</v>
       </c>
       <c r="AJ23" s="188" t="str">
         <f t="shared" si="4"/>
@@ -22426,7 +22411,7 @@
       </c>
       <c r="AK23" s="189">
         <f t="shared" si="4"/>
-        <v>-268.39547777777778</v>
+        <v>-421.76432222222223</v>
       </c>
       <c r="AL23" s="56"/>
       <c r="AM23" s="56"/>
@@ -22761,7 +22746,7 @@
       </c>
       <c r="B27" s="30" t="str">
         <f>GreenStyleUser!B27</f>
-        <v>LCD TV</v>
+        <v>LED TV</v>
       </c>
       <c r="C27" s="152">
         <f>'Data Aggregation'!G13</f>
@@ -22772,7 +22757,7 @@
       </c>
       <c r="E27" s="89">
         <f>VLOOKUP(B27,'back end data'!A50:B52,2,FALSE)</f>
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="F27" s="39">
         <v>0</v>
@@ -22780,12 +22765,12 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40">
         <f>J27*'back end data'!$B$63</f>
-        <v>0.17944199999999999</v>
+        <v>8.290900000000001E-2</v>
       </c>
       <c r="I27" s="40"/>
       <c r="J27" s="41">
         <f>C27*E27</f>
-        <v>0.36</v>
+        <v>0.1</v>
       </c>
       <c r="K27" s="30">
         <f t="shared" si="5"/>
@@ -22797,7 +22782,7 @@
       </c>
       <c r="M27" s="256">
         <f t="shared" si="5"/>
-        <v>9.3561058799999994</v>
+        <v>4.3228752600000009</v>
       </c>
       <c r="N27" s="31">
         <f t="shared" si="5"/>
@@ -22805,7 +22790,7 @@
       </c>
       <c r="O27" s="32">
         <f t="shared" si="5"/>
-        <v>18.770399999999999</v>
+        <v>5.2140000000000004</v>
       </c>
       <c r="P27" s="72">
         <f>'household calculator'!G24</f>
@@ -22817,7 +22802,7 @@
       </c>
       <c r="R27" s="252">
         <f>'household calculator'!I24</f>
-        <v>0</v>
+        <v>7.7811754679999989</v>
       </c>
       <c r="S27" s="73">
         <f>'household calculator'!J24</f>
@@ -22825,7 +22810,7 @@
       </c>
       <c r="T27" s="73">
         <f>'household calculator'!K24</f>
-        <v>0</v>
+        <v>9.3851999999999993</v>
       </c>
       <c r="U27" s="130"/>
       <c r="V27" s="79" t="str">
@@ -22836,17 +22821,17 @@
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="X27" s="80" t="str">
+      <c r="X27" s="80">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0.44444444444444425</v>
       </c>
       <c r="Y27" s="80" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="Z27" s="81" t="str">
+      <c r="Z27" s="81">
         <f t="shared" si="6"/>
-        <v/>
+        <v>0.44444444444444436</v>
       </c>
       <c r="AA27" s="56"/>
       <c r="AB27" s="101">
@@ -22856,12 +22841,12 @@
       <c r="AC27" s="103"/>
       <c r="AD27" s="102">
         <f t="shared" ref="AD27:AD34" si="9">(R27-M27)/(R$34-M$34)</f>
-        <v>-9.6533548470285873E-3</v>
+        <v>1.3123085836929853E-3</v>
       </c>
       <c r="AE27" s="103"/>
       <c r="AF27" s="102">
         <f t="shared" si="3"/>
-        <v>-9.9020508553168112E-3</v>
+        <v>1.2973587887273738E-3</v>
       </c>
       <c r="AG27" s="187" t="str">
         <f t="shared" si="8"/>
@@ -22871,17 +22856,17 @@
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AI27" s="188" t="str">
+      <c r="AI27" s="188">
         <f t="shared" si="8"/>
-        <v/>
+        <v>3.458300207999998</v>
       </c>
       <c r="AJ27" s="188" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AK27" s="189" t="str">
+      <c r="AK27" s="189">
         <f t="shared" si="8"/>
-        <v/>
+        <v>4.1711999999999989</v>
       </c>
       <c r="AL27" s="56"/>
       <c r="AM27" s="56"/>
@@ -22911,7 +22896,7 @@
       <c r="G28" s="40"/>
       <c r="H28" s="40">
         <f>J28*'back end data'!$B$63</f>
-        <v>1.744575</v>
+        <v>2.901815</v>
       </c>
       <c r="I28" s="40"/>
       <c r="J28" s="41">
@@ -22928,7 +22913,7 @@
       </c>
       <c r="M28" s="256">
         <f t="shared" si="5"/>
-        <v>90.962140500000004</v>
+        <v>151.3006341</v>
       </c>
       <c r="N28" s="31">
         <f t="shared" si="5"/>
@@ -22948,7 +22933,7 @@
       </c>
       <c r="R28" s="252">
         <f>'household calculator'!I25</f>
-        <v>136.44321074999999</v>
+        <v>75.650317049999998</v>
       </c>
       <c r="S28" s="73">
         <f>'household calculator'!J25</f>
@@ -22956,7 +22941,7 @@
       </c>
       <c r="T28" s="73">
         <f>'household calculator'!K25</f>
-        <v>273.73500000000001</v>
+        <v>91.245000000000005</v>
       </c>
       <c r="U28" s="130"/>
       <c r="V28" s="79" t="str">
@@ -22969,7 +22954,7 @@
       </c>
       <c r="X28" s="80">
         <f t="shared" si="6"/>
-        <v>0.33333333333333326</v>
+        <v>-1</v>
       </c>
       <c r="Y28" s="80" t="str">
         <f t="shared" si="6"/>
@@ -22977,7 +22962,7 @@
       </c>
       <c r="Z28" s="81">
         <f t="shared" si="6"/>
-        <v>0.33333333333333331</v>
+        <v>-1</v>
       </c>
       <c r="AA28" s="56"/>
       <c r="AB28" s="101">
@@ -22987,12 +22972,12 @@
       <c r="AC28" s="103"/>
       <c r="AD28" s="102">
         <f t="shared" si="9"/>
-        <v>4.6926030506388952E-2</v>
+        <v>-2.8706750268284068E-2</v>
       </c>
       <c r="AE28" s="103"/>
       <c r="AF28" s="102">
         <f t="shared" si="3"/>
-        <v>4.8134969435567831E-2</v>
+        <v>-2.8379723503411308E-2</v>
       </c>
       <c r="AG28" s="187" t="str">
         <f t="shared" si="8"/>
@@ -23004,7 +22989,7 @@
       </c>
       <c r="AI28" s="188">
         <f t="shared" si="8"/>
-        <v>45.481070249999988</v>
+        <v>-75.650317049999998</v>
       </c>
       <c r="AJ28" s="188" t="str">
         <f t="shared" si="8"/>
@@ -23012,7 +22997,7 @@
       </c>
       <c r="AK28" s="189">
         <f t="shared" si="8"/>
-        <v>91.245000000000005</v>
+        <v>-91.245000000000005</v>
       </c>
       <c r="AL28" s="56"/>
       <c r="AM28" s="56"/>
@@ -23042,7 +23027,7 @@
       <c r="G29" s="40"/>
       <c r="H29" s="40">
         <f>J29*'back end data'!$B$63</f>
-        <v>3.4891500000000006E-2</v>
+        <v>5.8036300000000006E-2</v>
       </c>
       <c r="I29" s="40"/>
       <c r="J29" s="41">
@@ -23059,7 +23044,7 @@
       </c>
       <c r="M29" s="256">
         <f t="shared" si="5"/>
-        <v>1.8192428100000004</v>
+        <v>3.0260126820000002</v>
       </c>
       <c r="N29" s="31">
         <f t="shared" si="5"/>
@@ -23079,7 +23064,7 @@
       </c>
       <c r="R29" s="252">
         <f>'household calculator'!I26</f>
-        <v>1.3644321075000001</v>
+        <v>1.5130063410000001</v>
       </c>
       <c r="S29" s="73">
         <f>'household calculator'!J26</f>
@@ -23087,7 +23072,7 @@
       </c>
       <c r="T29" s="73">
         <f>'household calculator'!K26</f>
-        <v>2.7373499999999997</v>
+        <v>1.8249000000000002</v>
       </c>
       <c r="U29" s="130"/>
       <c r="V29" s="79" t="str">
@@ -23100,7 +23085,7 @@
       </c>
       <c r="X29" s="80">
         <f t="shared" si="6"/>
-        <v>-0.33333333333333354</v>
+        <v>-1</v>
       </c>
       <c r="Y29" s="80" t="str">
         <f t="shared" si="6"/>
@@ -23108,7 +23093,7 @@
       </c>
       <c r="Z29" s="81">
         <f t="shared" si="6"/>
-        <v>-0.33333333333333359</v>
+        <v>-1</v>
       </c>
       <c r="AA29" s="56"/>
       <c r="AB29" s="101">
@@ -23118,12 +23103,12 @@
       <c r="AC29" s="103"/>
       <c r="AD29" s="102">
         <f t="shared" si="9"/>
-        <v>-4.6926030506389005E-4</v>
+        <v>-5.7413500536568146E-4</v>
       </c>
       <c r="AE29" s="103"/>
       <c r="AF29" s="102">
         <f t="shared" si="3"/>
-        <v>-4.8134969435567864E-4</v>
+        <v>-5.6759447006822625E-4</v>
       </c>
       <c r="AG29" s="187" t="str">
         <f t="shared" si="8"/>
@@ -23135,7 +23120,7 @@
       </c>
       <c r="AI29" s="188">
         <f t="shared" si="8"/>
-        <v>-0.45481070250000033</v>
+        <v>-1.5130063410000001</v>
       </c>
       <c r="AJ29" s="188" t="str">
         <f t="shared" si="8"/>
@@ -23143,7 +23128,7 @@
       </c>
       <c r="AK29" s="189">
         <f t="shared" si="8"/>
-        <v>-0.91245000000000065</v>
+        <v>-1.8249000000000002</v>
       </c>
       <c r="AL29" s="56"/>
       <c r="AM29" s="56"/>
@@ -23502,7 +23487,7 @@
       <c r="G33" s="43"/>
       <c r="H33" s="43">
         <f>J33*'back end data'!B63</f>
-        <v>0.69783000000000006</v>
+        <v>1.1607260000000001</v>
       </c>
       <c r="I33" s="43"/>
       <c r="J33" s="44">
@@ -23519,7 +23504,7 @@
       </c>
       <c r="M33" s="257">
         <f t="shared" si="10"/>
-        <v>36.384856200000002</v>
+        <v>60.520253640000007</v>
       </c>
       <c r="N33" s="37">
         <f t="shared" si="10"/>
@@ -23539,7 +23524,7 @@
       </c>
       <c r="R33" s="253">
         <f>'household calculator'!I30</f>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="S33" s="75">
         <f>'household calculator'!J30</f>
@@ -23547,7 +23532,7 @@
       </c>
       <c r="T33" s="75">
         <f>'household calculator'!K30</f>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
       <c r="U33" s="130"/>
       <c r="V33" s="82" t="str">
@@ -23560,7 +23545,7 @@
       </c>
       <c r="X33" s="83">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.45054945054945045</v>
       </c>
       <c r="Y33" s="83" t="str">
         <f t="shared" si="6"/>
@@ -23568,7 +23553,7 @@
       </c>
       <c r="Z33" s="84">
         <f t="shared" si="6"/>
-        <v>0.66666666666666663</v>
+        <v>0.4505494505494505</v>
       </c>
       <c r="AA33" s="56"/>
       <c r="AB33" s="104">
@@ -23578,12 +23563,12 @@
       <c r="AC33" s="105"/>
       <c r="AD33" s="106">
         <f t="shared" si="9"/>
-        <v>7.5081648810222348E-2</v>
+        <v>1.8831628175994344E-2</v>
       </c>
       <c r="AE33" s="105"/>
       <c r="AF33" s="106">
         <f t="shared" si="3"/>
-        <v>7.7015951096908522E-2</v>
+        <v>1.8617098618237817E-2</v>
       </c>
       <c r="AG33" s="193" t="str">
         <f t="shared" si="8"/>
@@ -23595,7 +23580,7 @@
       </c>
       <c r="AI33" s="194">
         <f t="shared" si="8"/>
-        <v>72.769712400000003</v>
+        <v>49.626607984799989</v>
       </c>
       <c r="AJ33" s="194" t="str">
         <f t="shared" si="8"/>
@@ -23603,7 +23588,7 @@
       </c>
       <c r="AK33" s="195">
         <f t="shared" si="8"/>
-        <v>145.99199999999999</v>
+        <v>59.856719999999996</v>
       </c>
       <c r="AL33" s="56"/>
       <c r="AM33" s="56"/>
@@ -23624,7 +23609,7 @@
       </c>
       <c r="H34" s="59">
         <f>SUM(H10:H33)</f>
-        <v>11.879663462962963</v>
+        <v>19.544312576543213</v>
       </c>
       <c r="I34" s="59">
         <f t="shared" si="11"/>
@@ -23632,7 +23617,7 @@
       </c>
       <c r="J34" s="59">
         <f>SUM(J10:J33)</f>
-        <v>21.491635802469133</v>
+        <v>21.231635802469135</v>
       </c>
       <c r="K34" s="59">
         <f>SUM(K10:K33)</f>
@@ -23644,7 +23629,7 @@
       </c>
       <c r="M34" s="258">
         <f>SUM(M10:M33)</f>
-        <v>619.40565295888882</v>
+        <v>1019.040457740963</v>
       </c>
       <c r="N34" s="59">
         <f>SUM(N10:N33)</f>
@@ -23652,11 +23637,11 @@
       </c>
       <c r="O34" s="59">
         <f>SUM(O10:O33)</f>
-        <v>1120.5738907407406</v>
+        <v>1107.0174907407406</v>
       </c>
       <c r="P34" s="198">
         <f>'household calculator'!G31</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="Q34" s="76">
         <f>'household calculator'!H31</f>
@@ -23664,7 +23649,7 @@
       </c>
       <c r="R34" s="254">
         <f>'household calculator'!I31</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="S34" s="76">
         <f>'household calculator'!J31</f>
@@ -23672,12 +23657,12 @@
       </c>
       <c r="T34" s="76">
         <f>'household calculator'!K31</f>
-        <v>3016.1812022222216</v>
+        <v>4322.1650938888879</v>
       </c>
       <c r="U34" s="183"/>
       <c r="V34" s="184">
         <f>IF(P34&lt;&gt;0,(P34-K34)/P34,"")</f>
-        <v>0.56757479346576478</v>
+        <v>0.65731453584700983</v>
       </c>
       <c r="W34" s="185" t="str">
         <f t="shared" ref="W34:Z34" si="12">IF(Q34&lt;&gt;0,(Q34-L34)/Q34,"")</f>
@@ -23685,7 +23670,7 @@
       </c>
       <c r="X34" s="185">
         <f t="shared" si="12"/>
-        <v>0.61009666037627441</v>
+        <v>0.72114089465720244</v>
       </c>
       <c r="Y34" s="185" t="str">
         <f t="shared" si="12"/>
@@ -23693,7 +23678,7 @@
       </c>
       <c r="Z34" s="186">
         <f t="shared" si="12"/>
-        <v>0.62847925386076298</v>
+        <v>0.74387431606766863</v>
       </c>
       <c r="AA34" s="129"/>
       <c r="AB34" s="100">
@@ -23712,7 +23697,7 @@
       </c>
       <c r="AG34" s="196">
         <f t="shared" ref="AG34:AK34" si="13">IF(P34&lt;&gt;0,(P34-K34),"")</f>
-        <v>55344.002999999997</v>
+        <v>80879.046600000001</v>
       </c>
       <c r="AH34" s="196" t="str">
         <f t="shared" si="13"/>
@@ -23720,7 +23705,7 @@
       </c>
       <c r="AI34" s="196">
         <f t="shared" si="13"/>
-        <v>969.20770325561125</v>
+        <v>2635.2797283912819</v>
       </c>
       <c r="AJ34" s="196" t="str">
         <f t="shared" si="13"/>
@@ -23728,7 +23713,7 @@
       </c>
       <c r="AK34" s="197">
         <f t="shared" si="13"/>
-        <v>1895.607311481481</v>
+        <v>3215.147603148147</v>
       </c>
       <c r="AL34" s="129"/>
       <c r="AM34" s="129"/>
@@ -23791,13 +23776,13 @@
       <c r="S36" s="56"/>
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
-      <c r="V36" s="342" t="s">
+      <c r="V36" s="357" t="s">
         <v>329</v>
       </c>
-      <c r="W36" s="342"/>
-      <c r="X36" s="342"/>
-      <c r="Y36" s="342"/>
-      <c r="Z36" s="342"/>
+      <c r="W36" s="357"/>
+      <c r="X36" s="357"/>
+      <c r="Y36" s="357"/>
+      <c r="Z36" s="357"/>
       <c r="AA36" s="56"/>
       <c r="AG36" s="56"/>
       <c r="AH36" s="56"/>
@@ -23843,7 +23828,7 @@
       </c>
       <c r="L68" s="19">
         <f>SUM(J27:J30)</f>
-        <v>3.9299999999999997</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="69" spans="6:12" x14ac:dyDescent="0.35">
@@ -23939,39 +23924,39 @@
       <c r="G2" s="56"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="403" t="s">
+      <c r="A3" s="418" t="s">
         <v>364</v>
       </c>
-      <c r="B3" s="403"/>
-      <c r="C3" s="403"/>
-      <c r="D3" s="403"/>
-      <c r="E3" s="404" t="s">
+      <c r="B3" s="418"/>
+      <c r="C3" s="418"/>
+      <c r="D3" s="418"/>
+      <c r="E3" s="419" t="s">
         <v>421</v>
       </c>
-      <c r="F3" s="405" t="s">
+      <c r="F3" s="420" t="s">
         <v>422</v>
       </c>
-      <c r="G3" s="406" t="s">
+      <c r="G3" s="421" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="403"/>
-      <c r="B4" s="403"/>
-      <c r="C4" s="403"/>
-      <c r="D4" s="403"/>
-      <c r="E4" s="404"/>
-      <c r="F4" s="405"/>
-      <c r="G4" s="406"/>
+      <c r="A4" s="418"/>
+      <c r="B4" s="418"/>
+      <c r="C4" s="418"/>
+      <c r="D4" s="418"/>
+      <c r="E4" s="419"/>
+      <c r="F4" s="420"/>
+      <c r="G4" s="421"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A5" s="403"/>
-      <c r="B5" s="403"/>
-      <c r="C5" s="403"/>
-      <c r="D5" s="403"/>
-      <c r="E5" s="404"/>
-      <c r="F5" s="405"/>
-      <c r="G5" s="406"/>
+      <c r="A5" s="418"/>
+      <c r="B5" s="418"/>
+      <c r="C5" s="418"/>
+      <c r="D5" s="418"/>
+      <c r="E5" s="419"/>
+      <c r="F5" s="420"/>
+      <c r="G5" s="421"/>
     </row>
     <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="116" t="s">
@@ -24202,13 +24187,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" s="407" t="s">
+      <c r="A16" s="422" t="s">
         <v>436</v>
       </c>
-      <c r="B16" s="407"/>
-      <c r="C16" s="407"/>
-      <c r="D16" s="407"/>
-      <c r="E16" s="407"/>
+      <c r="B16" s="422"/>
+      <c r="C16" s="422"/>
+      <c r="D16" s="422"/>
+      <c r="E16" s="422"/>
     </row>
     <row r="18" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="121" t="s">
@@ -24452,26 +24437,26 @@
     </row>
     <row r="64" spans="1:2" s="75" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="66" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="403" t="s">
+      <c r="A66" s="418" t="s">
         <v>438</v>
       </c>
-      <c r="B66" s="403"/>
-      <c r="C66" s="403"/>
-      <c r="E66" s="408" t="s">
+      <c r="B66" s="418"/>
+      <c r="C66" s="418"/>
+      <c r="E66" s="423" t="s">
         <v>439</v>
       </c>
-      <c r="F66" s="408"/>
-      <c r="G66" s="408"/>
-      <c r="H66" s="408"/>
+      <c r="F66" s="423"/>
+      <c r="G66" s="423"/>
+      <c r="H66" s="423"/>
     </row>
     <row r="67" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="403"/>
-      <c r="B67" s="403"/>
-      <c r="C67" s="403"/>
-      <c r="E67" s="408"/>
-      <c r="F67" s="408"/>
-      <c r="G67" s="408"/>
-      <c r="H67" s="408"/>
+      <c r="A67" s="418"/>
+      <c r="B67" s="418"/>
+      <c r="C67" s="418"/>
+      <c r="E67" s="423"/>
+      <c r="F67" s="423"/>
+      <c r="G67" s="423"/>
+      <c r="H67" s="423"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
@@ -24483,12 +24468,12 @@
       <c r="C68" t="s">
         <v>441</v>
       </c>
-      <c r="E68" s="401" t="s">
+      <c r="E68" s="416" t="s">
         <v>442</v>
       </c>
-      <c r="F68" s="401"/>
-      <c r="G68" s="401"/>
-      <c r="H68" s="401"/>
+      <c r="F68" s="416"/>
+      <c r="G68" s="416"/>
+      <c r="H68" s="416"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
@@ -24501,12 +24486,12 @@
         <f>B26</f>
         <v>423.60300000000001</v>
       </c>
-      <c r="E69" s="401" t="s">
+      <c r="E69" s="416" t="s">
         <v>443</v>
       </c>
-      <c r="F69" s="401"/>
-      <c r="G69" s="401"/>
-      <c r="H69" s="401"/>
+      <c r="F69" s="416"/>
+      <c r="G69" s="416"/>
+      <c r="H69" s="416"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
@@ -24519,12 +24504,12 @@
         <f>B41</f>
         <v>1368.6125</v>
       </c>
-      <c r="E70" s="401" t="s">
+      <c r="E70" s="416" t="s">
         <v>444</v>
       </c>
-      <c r="F70" s="401"/>
-      <c r="G70" s="401"/>
-      <c r="H70" s="401"/>
+      <c r="F70" s="416"/>
+      <c r="G70" s="416"/>
+      <c r="H70" s="416"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
@@ -24537,10 +24522,10 @@
         <f>B57</f>
         <v>254.286</v>
       </c>
-      <c r="E71" s="402"/>
-      <c r="F71" s="402"/>
-      <c r="G71" s="402"/>
-      <c r="H71" s="402"/>
+      <c r="E71" s="417"/>
+      <c r="F71" s="417"/>
+      <c r="G71" s="417"/>
+      <c r="H71" s="417"/>
     </row>
     <row r="88" spans="1:2" s="138" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -25044,19 +25029,19 @@
       <c r="E1" t="s">
         <v>353</v>
       </c>
-      <c r="G1" s="409" t="s">
+      <c r="G1" s="424" t="s">
         <v>354</v>
       </c>
-      <c r="H1" s="409"/>
-      <c r="I1" s="409"/>
-      <c r="J1" s="409"/>
-      <c r="K1" s="409"/>
-      <c r="L1" s="409"/>
-      <c r="M1" s="409"/>
-      <c r="N1" s="409"/>
-      <c r="O1" s="409"/>
-      <c r="P1" s="409"/>
-      <c r="Q1" s="409"/>
+      <c r="H1" s="424"/>
+      <c r="I1" s="424"/>
+      <c r="J1" s="424"/>
+      <c r="K1" s="424"/>
+      <c r="L1" s="424"/>
+      <c r="M1" s="424"/>
+      <c r="N1" s="424"/>
+      <c r="O1" s="424"/>
+      <c r="P1" s="424"/>
+      <c r="Q1" s="424"/>
       <c r="R1" s="110"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -25116,27 +25101,27 @@
         <f>(($A$4*1)/1000)+E3</f>
         <v>3.1E-2</v>
       </c>
-      <c r="G4" s="410" t="s">
+      <c r="G4" s="425" t="s">
         <v>358</v>
       </c>
-      <c r="H4" s="410"/>
-      <c r="I4" s="410"/>
-      <c r="J4" s="410"/>
-      <c r="K4" s="410"/>
-      <c r="L4" s="410"/>
-      <c r="M4" s="410"/>
-      <c r="N4" s="410"/>
-      <c r="O4" s="410"/>
-      <c r="P4" s="410"/>
+      <c r="H4" s="425"/>
+      <c r="I4" s="425"/>
+      <c r="J4" s="425"/>
+      <c r="K4" s="425"/>
+      <c r="L4" s="425"/>
+      <c r="M4" s="425"/>
+      <c r="N4" s="425"/>
+      <c r="O4" s="425"/>
+      <c r="P4" s="425"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="G6" s="409" t="s">
+      <c r="G6" s="424" t="s">
         <v>359</v>
       </c>
-      <c r="H6" s="409"/>
-      <c r="I6" s="409"/>
-      <c r="J6" s="409"/>
-      <c r="K6" s="409"/>
+      <c r="H6" s="424"/>
+      <c r="I6" s="424"/>
+      <c r="J6" s="424"/>
+      <c r="K6" s="424"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
@@ -25284,8 +25269,8 @@
   </sheetPr>
   <dimension ref="A1:O70"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11:C34"/>
     </sheetView>
@@ -25371,11 +25356,11 @@
     </row>
     <row r="6" spans="1:13" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="210"/>
-      <c r="B6" s="312" t="s">
+      <c r="B6" s="327" t="s">
         <v>446</v>
       </c>
-      <c r="C6" s="313"/>
-      <c r="D6" s="314"/>
+      <c r="C6" s="328"/>
+      <c r="D6" s="329"/>
       <c r="E6" s="210"/>
       <c r="F6" s="211"/>
       <c r="G6" s="211"/>
@@ -25388,9 +25373,9 @@
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="210"/>
-      <c r="B7" s="315"/>
-      <c r="C7" s="316"/>
-      <c r="D7" s="317"/>
+      <c r="B7" s="330"/>
+      <c r="C7" s="331"/>
+      <c r="D7" s="332"/>
       <c r="E7" s="210"/>
       <c r="F7" s="211"/>
       <c r="G7" s="211"/>
@@ -25466,11 +25451,11 @@
       <c r="A11" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="B11" s="416" t="s">
+      <c r="B11" s="315" t="s">
         <v>482</v>
       </c>
-      <c r="C11" s="417">
-        <v>105</v>
+      <c r="C11" s="316">
+        <v>210</v>
       </c>
       <c r="D11" s="200" t="s">
         <v>145</v>
@@ -25489,12 +25474,10 @@
       <c r="A12" s="223" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="416" t="s">
+      <c r="B12" s="315" t="s">
         <v>486</v>
       </c>
-      <c r="C12" s="417">
-        <v>0</v>
-      </c>
+      <c r="C12" s="316"/>
       <c r="D12" s="200" t="s">
         <v>144</v>
       </c>
@@ -25512,11 +25495,11 @@
       <c r="A13" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="B13" s="416" t="s">
-        <v>487</v>
-      </c>
-      <c r="C13" s="417">
-        <v>5</v>
+      <c r="B13" s="315" t="s">
+        <v>488</v>
+      </c>
+      <c r="C13" s="316">
+        <v>3</v>
       </c>
       <c r="D13" s="200" t="s">
         <v>149</v>
@@ -25535,10 +25518,12 @@
       <c r="A14" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="B14" s="416" t="s">
+      <c r="B14" s="315" t="s">
         <v>151</v>
       </c>
-      <c r="C14" s="417"/>
+      <c r="C14" s="316">
+        <v>2</v>
+      </c>
       <c r="D14" s="200" t="s">
         <v>149</v>
       </c>
@@ -25556,11 +25541,11 @@
       <c r="A15" s="223" t="s">
         <v>153</v>
       </c>
-      <c r="B15" s="418" t="s">
+      <c r="B15" s="317" t="s">
         <v>489</v>
       </c>
-      <c r="C15" s="417">
-        <v>7</v>
+      <c r="C15" s="316">
+        <v>4</v>
       </c>
       <c r="D15" s="200" t="s">
         <v>149</v>
@@ -25579,12 +25564,10 @@
       <c r="A16" s="223" t="s">
         <v>154</v>
       </c>
-      <c r="B16" s="418" t="s">
+      <c r="B16" s="317" t="s">
         <v>489</v>
       </c>
-      <c r="C16" s="417">
-        <v>1</v>
-      </c>
+      <c r="C16" s="316"/>
       <c r="D16" s="200" t="s">
         <v>144</v>
       </c>
@@ -25600,8 +25583,8 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="223"/>
-      <c r="B17" s="416"/>
-      <c r="C17" s="417"/>
+      <c r="B17" s="315"/>
+      <c r="C17" s="316"/>
       <c r="D17" s="200"/>
       <c r="E17" s="210"/>
       <c r="F17" s="211"/>
@@ -25617,8 +25600,8 @@
       <c r="A18" s="220" t="s">
         <v>496</v>
       </c>
-      <c r="B18" s="415"/>
-      <c r="C18" s="419"/>
+      <c r="B18" s="314"/>
+      <c r="C18" s="318"/>
       <c r="D18" s="201"/>
       <c r="E18" s="210"/>
       <c r="F18" s="211"/>
@@ -25634,11 +25617,11 @@
       <c r="A19" s="223" t="s">
         <v>157</v>
       </c>
-      <c r="B19" s="416" t="s">
-        <v>159</v>
-      </c>
-      <c r="C19" s="417">
-        <v>7</v>
+      <c r="B19" s="315" t="s">
+        <v>492</v>
+      </c>
+      <c r="C19" s="316">
+        <v>3.5</v>
       </c>
       <c r="D19" s="200" t="s">
         <v>162</v>
@@ -25657,11 +25640,11 @@
       <c r="A20" s="223" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="416" t="s">
-        <v>523</v>
-      </c>
-      <c r="C20" s="417">
-        <v>7</v>
+      <c r="B20" s="315" t="s">
+        <v>494</v>
+      </c>
+      <c r="C20" s="316">
+        <v>3.5</v>
       </c>
       <c r="D20" s="200" t="s">
         <v>162</v>
@@ -25678,8 +25661,8 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="223"/>
-      <c r="B21" s="416"/>
-      <c r="C21" s="417"/>
+      <c r="B21" s="315"/>
+      <c r="C21" s="316"/>
       <c r="D21" s="200"/>
       <c r="E21" s="210"/>
       <c r="F21" s="211"/>
@@ -25695,8 +25678,8 @@
       <c r="A22" s="220" t="s">
         <v>497</v>
       </c>
-      <c r="B22" s="415"/>
-      <c r="C22" s="419"/>
+      <c r="B22" s="314"/>
+      <c r="C22" s="318"/>
       <c r="D22" s="201"/>
       <c r="E22" s="210"/>
       <c r="F22" s="211"/>
@@ -25712,11 +25695,11 @@
       <c r="A23" s="223" t="s">
         <v>163</v>
       </c>
-      <c r="B23" s="416" t="s">
-        <v>166</v>
-      </c>
-      <c r="C23" s="417">
-        <v>0.5</v>
+      <c r="B23" s="315" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="316">
+        <v>0.2</v>
       </c>
       <c r="D23" s="200" t="s">
         <v>167</v>
@@ -25735,11 +25718,11 @@
       <c r="A24" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="420" t="s">
+      <c r="B24" s="319" t="s">
         <v>504</v>
       </c>
-      <c r="C24" s="417">
-        <v>7</v>
+      <c r="C24" s="316">
+        <v>3</v>
       </c>
       <c r="D24" s="200" t="s">
         <v>144</v>
@@ -25758,12 +25741,10 @@
       <c r="A25" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="B25" s="416" t="s">
+      <c r="B25" s="315" t="s">
         <v>502</v>
       </c>
-      <c r="C25" s="417">
-        <v>0</v>
-      </c>
+      <c r="C25" s="316"/>
       <c r="D25" s="200" t="s">
         <v>183</v>
       </c>
@@ -25779,8 +25760,8 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="223"/>
-      <c r="B26" s="416"/>
-      <c r="C26" s="417"/>
+      <c r="B26" s="315"/>
+      <c r="C26" s="316"/>
       <c r="D26" s="200"/>
       <c r="E26" s="210"/>
       <c r="F26" s="211"/>
@@ -25796,8 +25777,8 @@
       <c r="A27" s="220" t="s">
         <v>498</v>
       </c>
-      <c r="B27" s="415"/>
-      <c r="C27" s="419"/>
+      <c r="B27" s="314"/>
+      <c r="C27" s="318"/>
       <c r="D27" s="201"/>
       <c r="E27" s="210"/>
       <c r="F27" s="211"/>
@@ -25813,11 +25794,11 @@
       <c r="A28" s="223" t="s">
         <v>168</v>
       </c>
-      <c r="B28" s="416" t="s">
+      <c r="B28" s="315" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="417">
-        <v>0</v>
+      <c r="C28" s="316">
+        <v>1</v>
       </c>
       <c r="D28" s="200" t="s">
         <v>171</v>
@@ -25836,11 +25817,11 @@
       <c r="A29" s="223" t="s">
         <v>169</v>
       </c>
-      <c r="B29" s="416" t="s">
+      <c r="B29" s="315" t="s">
         <v>176</v>
       </c>
-      <c r="C29" s="417">
-        <v>15</v>
+      <c r="C29" s="316">
+        <v>5</v>
       </c>
       <c r="D29" s="200" t="s">
         <v>178</v>
@@ -25859,11 +25840,11 @@
       <c r="A30" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="416" t="s">
+      <c r="B30" s="315" t="s">
         <v>507</v>
       </c>
-      <c r="C30" s="417">
-        <v>1.5</v>
+      <c r="C30" s="316">
+        <v>1</v>
       </c>
       <c r="D30" s="200" t="s">
         <v>178</v>
@@ -25882,12 +25863,10 @@
       <c r="A31" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="B31" s="416" t="s">
+      <c r="B31" s="315" t="s">
         <v>505</v>
       </c>
-      <c r="C31" s="417">
-        <v>0</v>
-      </c>
+      <c r="C31" s="316"/>
       <c r="D31" s="200" t="s">
         <v>178</v>
       </c>
@@ -25903,8 +25882,8 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="223"/>
-      <c r="B32" s="416"/>
-      <c r="C32" s="421"/>
+      <c r="B32" s="315"/>
+      <c r="C32" s="320"/>
       <c r="D32" s="200"/>
       <c r="E32" s="210"/>
       <c r="F32" s="211"/>
@@ -25920,8 +25899,8 @@
       <c r="A33" s="220" t="s">
         <v>499</v>
       </c>
-      <c r="B33" s="415"/>
-      <c r="C33" s="422"/>
+      <c r="B33" s="314"/>
+      <c r="C33" s="321"/>
       <c r="D33" s="201"/>
       <c r="E33" s="210"/>
       <c r="F33" s="211"/>
@@ -25937,11 +25916,11 @@
       <c r="A34" s="224" t="s">
         <v>513</v>
       </c>
-      <c r="B34" s="423" t="s">
-        <v>511</v>
-      </c>
-      <c r="C34" s="424">
-        <v>15</v>
+      <c r="B34" s="322" t="s">
+        <v>510</v>
+      </c>
+      <c r="C34" s="323">
+        <v>7</v>
       </c>
       <c r="D34" s="202" t="s">
         <v>178</v>
@@ -26366,7 +26345,7 @@
       <c r="K67" s="210"/>
       <c r="L67" s="211">
         <f>SUM('household calculator'!F15:F16)</f>
-        <v>4.0080185185185186</v>
+        <v>0.14900925925925926</v>
       </c>
       <c r="M67" s="210"/>
     </row>
@@ -26380,26 +26359,29 @@
       <c r="K68" s="210"/>
       <c r="L68" s="211">
         <f>'household calculator'!F19</f>
-        <v>1.26</v>
+        <v>0.16800000000000001</v>
       </c>
       <c r="M68" s="210"/>
     </row>
     <row r="69" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L69" s="205">
         <f>SUM('household calculator'!F24:F27)</f>
-        <v>5.3025000000000002</v>
+        <v>1.9649999999999999</v>
       </c>
     </row>
     <row r="70" spans="5:13" x14ac:dyDescent="0.35">
       <c r="L70" s="205">
         <f>'household calculator'!F30</f>
-        <v>4.2</v>
+        <v>2.548</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B6:D7"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="note that an average laundry machine can hold up to 5 kg of laundry" sqref="C19"/>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="B36" location="'diet input'!A1" display="click here"/>
   </hyperlinks>
@@ -26407,24 +26389,90 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\User Info\Old Input Data\[CO2 calculator_Bala.xlsm]back end data'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B34 B28:B31 B23:B25 B19:B20 B12:B13</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="14">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Choose your type of shower head first. Then indicate how many minutes you shower every week. Only count the minutes when the tap is open and the water running!">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\User Info\Old Input Data\[CO2 calculator_Bala.xlsm]back end data'!#REF!</xm:f>
+            <xm:f>'back end data'!$A$7:$A$10</xm:f>
           </x14:formula1>
           <xm:sqref>B11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'E:\Bala\KTH\LEDSafari\User Info\Old Input Data\[CO2 calculator_Bala.xlsm]back end data'!#REF!</xm:f>
+            <xm:f>'back end data'!$A$11:$A$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B12</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$15:$A$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>B13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$21:$A$23</xm:f>
           </x14:formula1>
           <xm:sqref>B14</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$29:$A$32</xm:f>
+          </x14:formula1>
+          <xm:sqref>B19</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$33:$A$35</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$37:$A$40</xm:f>
+          </x14:formula1>
+          <xm:sqref>B23</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$49:$A$52</xm:f>
+          </x14:formula1>
+          <xm:sqref>B28</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$56:$A$58</xm:f>
+          </x14:formula1>
+          <xm:sqref>B31</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$44:$A$47</xm:f>
+          </x14:formula1>
+          <xm:sqref>B25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$66:$A$71</xm:f>
+          </x14:formula1>
+          <xm:sqref>B34</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$41:$A$43</xm:f>
+          </x14:formula1>
+          <xm:sqref>B24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$59:$A$61</xm:f>
+          </x14:formula1>
+          <xm:sqref>B30</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'back end data'!$A$53:$A$55</xm:f>
+          </x14:formula1>
+          <xm:sqref>B29</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -28775,19 +28823,19 @@
       <c r="E2" s="140"/>
     </row>
     <row r="3" spans="1:5" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="318" t="s">
+      <c r="A3" s="333" t="s">
         <v>542</v>
       </c>
-      <c r="B3" s="318"/>
+      <c r="B3" s="333"/>
       <c r="C3" s="142"/>
       <c r="D3" s="142"/>
       <c r="E3" s="142"/>
     </row>
     <row r="4" spans="1:5" ht="38.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="319" t="s">
+      <c r="A4" s="334" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="319"/>
+      <c r="B4" s="334"/>
       <c r="C4" s="143"/>
       <c r="D4" s="143"/>
       <c r="E4" s="143"/>
@@ -29005,24 +29053,24 @@
       <c r="E27" s="140"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A28" s="324" t="s">
+      <c r="A28" s="339" t="s">
         <v>525</v>
       </c>
-      <c r="B28" s="325"/>
+      <c r="B28" s="340"/>
       <c r="C28" s="140"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A29" s="320"/>
-      <c r="B29" s="321"/>
+      <c r="A29" s="335"/>
+      <c r="B29" s="336"/>
       <c r="C29" s="140"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A30" s="322"/>
-      <c r="B30" s="323"/>
+      <c r="A30" s="337"/>
+      <c r="B30" s="338"/>
       <c r="C30" s="140"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
@@ -29110,13 +29158,13 @@
       <c r="H2" s="250"/>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="332" t="s">
+      <c r="A3" s="347" t="s">
         <v>590</v>
       </c>
-      <c r="B3" s="333"/>
-      <c r="C3" s="333"/>
-      <c r="D3" s="333"/>
-      <c r="E3" s="333"/>
+      <c r="B3" s="348"/>
+      <c r="C3" s="348"/>
+      <c r="D3" s="348"/>
+      <c r="E3" s="348"/>
       <c r="F3" s="246"/>
       <c r="G3" s="245"/>
       <c r="H3" s="245"/>
@@ -29129,15 +29177,15 @@
     </row>
     <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="247"/>
-      <c r="B5" s="326" t="s">
+      <c r="B5" s="341" t="s">
         <v>623</v>
       </c>
-      <c r="C5" s="327"/>
-      <c r="D5" s="328">
+      <c r="C5" s="342"/>
+      <c r="D5" s="343">
         <f>SUM(B9:E9)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="329"/>
+      <c r="E5" s="344"/>
       <c r="F5" s="248"/>
       <c r="G5" s="244"/>
       <c r="H5" s="244"/>
@@ -29145,15 +29193,15 @@
     </row>
     <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="249"/>
-      <c r="B6" s="330" t="s">
+      <c r="B6" s="345" t="s">
         <v>624</v>
       </c>
-      <c r="C6" s="331"/>
-      <c r="D6" s="328">
+      <c r="C6" s="346"/>
+      <c r="D6" s="343">
         <f>7*D5</f>
         <v>0</v>
       </c>
-      <c r="E6" s="329"/>
+      <c r="E6" s="344"/>
       <c r="F6" s="248"/>
       <c r="G6" s="244"/>
       <c r="H6" s="244"/>
@@ -31642,17 +31690,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="334" t="s">
+      <c r="A1" s="349" t="s">
         <v>367</v>
       </c>
-      <c r="B1" s="334"/>
-      <c r="C1" s="334"/>
-      <c r="D1" s="334"/>
-      <c r="E1" s="334"/>
-      <c r="F1" s="334"/>
-      <c r="G1" s="334"/>
-      <c r="H1" s="334"/>
-      <c r="I1" s="334"/>
+      <c r="B1" s="349"/>
+      <c r="C1" s="349"/>
+      <c r="D1" s="349"/>
+      <c r="E1" s="349"/>
+      <c r="F1" s="349"/>
+      <c r="G1" s="349"/>
+      <c r="H1" s="349"/>
+      <c r="I1" s="349"/>
     </row>
     <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="111" t="s">
@@ -35542,7 +35590,7 @@
       <c r="B1" s="56"/>
       <c r="C1" s="137" t="str">
         <f>Start!B7</f>
-        <v>Shravan Kumar</v>
+        <v>Annalisa Mansukhani</v>
       </c>
       <c r="D1" s="137"/>
       <c r="E1" s="56"/>
@@ -35582,7 +35630,7 @@
       </c>
       <c r="B5" s="64">
         <f>'household calculator'!G31</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="C5" s="56" t="s">
         <v>286</v>
@@ -35597,7 +35645,7 @@
       </c>
       <c r="B6" s="64">
         <f>'household calculator'!I31+B44</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="C6" s="56" t="s">
         <v>287</v>
@@ -35612,7 +35660,7 @@
       </c>
       <c r="B7" s="64">
         <f>'household calculator'!K31</f>
-        <v>3016.1812022222216</v>
+        <v>4322.1650938888879</v>
       </c>
       <c r="C7" s="56" t="s">
         <v>193</v>
@@ -35676,11 +35724,11 @@
         <v>325</v>
       </c>
       <c r="B14" s="65"/>
-      <c r="C14" s="335" t="s">
+      <c r="C14" s="350" t="s">
         <v>296</v>
       </c>
-      <c r="D14" s="335"/>
-      <c r="E14" s="335"/>
+      <c r="D14" s="350"/>
+      <c r="E14" s="350"/>
       <c r="F14" s="56"/>
     </row>
     <row r="15" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -35705,19 +35753,19 @@
       </c>
       <c r="B16" s="64">
         <f>'household calculator'!G7+'household calculator'!G8 + 'household calculator'!G10+'household calculator'!G11+'household calculator'!G12</f>
-        <v>57562.559999999998</v>
+        <v>113143.8</v>
       </c>
       <c r="C16" s="91">
         <f>B16/'back end data'!$B$87</f>
-        <v>575.62559999999996</v>
+        <v>1131.4380000000001</v>
       </c>
       <c r="D16" s="93">
         <f>B16/'back end data'!$B$88</f>
-        <v>5.7562559999999999E-2</v>
+        <v>0.1131438</v>
       </c>
       <c r="E16" s="91">
         <f>B16/'back end data'!$B$89</f>
-        <v>17443.2</v>
+        <v>34286</v>
       </c>
       <c r="F16" s="56"/>
     </row>
@@ -35727,19 +35775,19 @@
       </c>
       <c r="B17" s="64">
         <f>'household calculator'!G9</f>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="C17" s="91">
         <f>B17/'back end data'!$B$87</f>
-        <v>237.23699999999999</v>
+        <v>38.322899999999997</v>
       </c>
       <c r="D17" s="93">
         <f>B17/'back end data'!$B$88</f>
-        <v>2.37237E-2</v>
+        <v>3.8322899999999999E-3</v>
       </c>
       <c r="E17" s="91">
         <f>B17/'back end data'!$B$89</f>
-        <v>7189.0000000000009</v>
+        <v>1161.3</v>
       </c>
       <c r="F17" s="56"/>
     </row>
@@ -35749,19 +35797,19 @@
       </c>
       <c r="B18" s="64">
         <f>'household calculator'!G19</f>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="C18" s="91">
         <f>B18/'back end data'!$B$87</f>
-        <v>1.8249000000000002</v>
+        <v>0.72996000000000005</v>
       </c>
       <c r="D18" s="93">
         <f>B18/'back end data'!$B$88</f>
-        <v>1.8249E-4</v>
+        <v>7.2996000000000004E-5</v>
       </c>
       <c r="E18" s="91">
         <f>B18/'back end data'!$B$89</f>
-        <v>55.300000000000004</v>
+        <v>22.120000000000005</v>
       </c>
       <c r="F18" s="56"/>
     </row>
@@ -35771,19 +35819,19 @@
       </c>
       <c r="B19" s="64">
         <f>'household calculator'!G15</f>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="C19" s="91">
         <f>B19/'back end data'!$B$87</f>
-        <v>50.914709999999992</v>
+        <v>13.029786</v>
       </c>
       <c r="D19" s="93">
         <f>B19/'back end data'!$B$88</f>
-        <v>5.0914709999999993E-3</v>
+        <v>1.3029786E-3</v>
       </c>
       <c r="E19" s="91">
         <f>B19/'back end data'!$B$89</f>
-        <v>1542.87</v>
+        <v>394.84199999999998</v>
       </c>
       <c r="F19" s="56"/>
     </row>
@@ -35793,19 +35841,19 @@
       </c>
       <c r="B20" s="64">
         <f>'household calculator'!G20+'household calculator'!G21</f>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="C20" s="91">
         <f>B20/'back end data'!$B$87</f>
-        <v>109.494</v>
+        <v>46.926000000000002</v>
       </c>
       <c r="D20" s="93">
         <f>B20/'back end data'!$B$88</f>
-        <v>1.09494E-2</v>
+        <v>4.6926000000000008E-3</v>
       </c>
       <c r="E20" s="91">
         <f>B20/'back end data'!$B$89</f>
-        <v>3318</v>
+        <v>1422.0000000000002</v>
       </c>
       <c r="F20" s="56"/>
     </row>
@@ -35815,19 +35863,19 @@
       </c>
       <c r="B21" s="67">
         <f>SUM(B16:B20)</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="C21" s="92">
         <f>B21/'back end data'!$B$87</f>
-        <v>975.09621000000004</v>
+        <v>1230.4466460000001</v>
       </c>
       <c r="D21" s="94">
         <f>B21/'back end data'!$B$88</f>
-        <v>9.7509621000000005E-2</v>
+        <v>0.12304466460000001</v>
       </c>
       <c r="E21" s="92">
         <f>B21/'back end data'!$B$89</f>
-        <v>29548.370000000003</v>
+        <v>37286.262000000002</v>
       </c>
       <c r="F21" s="56"/>
     </row>
@@ -35868,11 +35916,11 @@
         <v>326</v>
       </c>
       <c r="B26" s="65"/>
-      <c r="C26" s="335" t="s">
+      <c r="C26" s="350" t="s">
         <v>296</v>
       </c>
-      <c r="D26" s="335"/>
-      <c r="E26" s="335"/>
+      <c r="D26" s="350"/>
+      <c r="E26" s="350"/>
       <c r="F26" s="56"/>
     </row>
     <row r="27" spans="1:6" ht="29" x14ac:dyDescent="0.35">
@@ -35897,19 +35945,19 @@
       </c>
       <c r="B28" s="64">
         <f>'household calculator'!K30</f>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
       <c r="C28" s="91">
         <f>B28/'back end data'!$B$91</f>
-        <v>114.05625000000001</v>
+        <v>69.194125</v>
       </c>
       <c r="D28" s="96">
         <f>B28/'back end data'!$B$93</f>
-        <v>20856</v>
+        <v>12652.64</v>
       </c>
       <c r="E28" s="91">
         <f>B28/'back end data'!$B$92</f>
-        <v>1368.675</v>
+        <v>830.32950000000005</v>
       </c>
       <c r="F28" s="56"/>
     </row>
@@ -35919,19 +35967,19 @@
       </c>
       <c r="B29" s="64">
         <f>SUM('household calculator'!K25:K27)</f>
-        <v>276.47235000000001</v>
+        <v>93.069900000000004</v>
       </c>
       <c r="C29" s="91">
         <f>B29/'back end data'!$B$91</f>
-        <v>143.99601562500001</v>
+        <v>48.473906250000006</v>
       </c>
       <c r="D29" s="96">
         <f>B29/'back end data'!$B$93</f>
-        <v>26330.7</v>
+        <v>8863.7999999999993</v>
       </c>
       <c r="E29" s="91">
         <f>B29/'back end data'!$B$92</f>
-        <v>1727.9521875</v>
+        <v>581.68687499999999</v>
       </c>
       <c r="F29" s="56"/>
     </row>
@@ -35941,19 +35989,19 @@
       </c>
       <c r="B30" s="64">
         <f>'household calculator'!K24</f>
-        <v>0</v>
+        <v>9.3851999999999993</v>
       </c>
       <c r="C30" s="91">
         <f>B30/'back end data'!$B$91</f>
-        <v>0</v>
+        <v>4.8881249999999996</v>
       </c>
       <c r="D30" s="96">
         <f>B30/'back end data'!$B$93</f>
-        <v>0</v>
+        <v>893.82857142857131</v>
       </c>
       <c r="E30" s="91">
         <f>B30/'back end data'!$B$92</f>
-        <v>0</v>
+        <v>58.657499999999992</v>
       </c>
       <c r="F30" s="56"/>
     </row>
@@ -35963,19 +36011,19 @@
       </c>
       <c r="B31" s="64">
         <f>SUM('household calculator'!K15:K16)</f>
-        <v>208.97808555555557</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="C31" s="91">
         <f>B31/'back end data'!$B$91</f>
-        <v>108.84275289351852</v>
+        <v>4.0465326967592592</v>
       </c>
       <c r="D31" s="96">
         <f>B31/'back end data'!$B$93</f>
-        <v>19902.674814814814</v>
+        <v>739.93740740740736</v>
       </c>
       <c r="E31" s="91">
         <f>B31/'back end data'!$B$92</f>
-        <v>1306.1130347222222</v>
+        <v>48.55839236111111</v>
       </c>
       <c r="F31" s="56"/>
     </row>
@@ -35985,19 +36033,19 @@
       </c>
       <c r="B32" s="64">
         <f>SUM('household calculator'!K7:K8,'household calculator'!K19:K21)</f>
-        <v>2311.7427666666667</v>
+        <v>4079.0879311111112</v>
       </c>
       <c r="C32" s="91">
         <f>B32/'back end data'!$B$91</f>
-        <v>1204.0326909722223</v>
+        <v>2124.5249641203704</v>
       </c>
       <c r="D32" s="96">
         <f>B32/'back end data'!$B$93</f>
-        <v>220165.97777777776</v>
+        <v>388484.56486772484</v>
       </c>
       <c r="E32" s="91">
         <f>B32/'back end data'!$B$92</f>
-        <v>14448.392291666667</v>
+        <v>25494.299569444443</v>
       </c>
       <c r="F32" s="56"/>
     </row>
@@ -36007,19 +36055,19 @@
       </c>
       <c r="B33" s="67">
         <f>SUM(B28:B32)</f>
-        <v>3016.1812022222221</v>
+        <v>4322.1650938888888</v>
       </c>
       <c r="C33" s="92">
         <f>B33/'back end data'!$B$91</f>
-        <v>1570.9277094907407</v>
+        <v>2251.1276530671298</v>
       </c>
       <c r="D33" s="97">
         <f>B33/'back end data'!$B$93</f>
-        <v>287255.35259259254</v>
+        <v>411634.77084656083</v>
       </c>
       <c r="E33" s="92">
         <f>B33/'back end data'!$B$92</f>
-        <v>18851.132513888886</v>
+        <v>27013.531836805556</v>
       </c>
       <c r="F33" s="56"/>
     </row>
@@ -36060,11 +36108,11 @@
         <v>306</v>
       </c>
       <c r="B38" s="65"/>
-      <c r="C38" s="335" t="s">
+      <c r="C38" s="350" t="s">
         <v>296</v>
       </c>
-      <c r="D38" s="335"/>
-      <c r="E38" s="335"/>
+      <c r="D38" s="350"/>
+      <c r="E38" s="350"/>
       <c r="F38" s="56"/>
     </row>
     <row r="39" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
@@ -36089,19 +36137,19 @@
       </c>
       <c r="B40" s="64">
         <f>'household calculator'!I30</f>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="C40" s="91">
         <f>B40/'back end data'!$B$95</f>
-        <v>36.629049865771812</v>
+        <v>36.962034102281876</v>
       </c>
       <c r="D40" s="96">
         <f>B40/'back end data'!$B$96</f>
-        <v>27.240970451709511</v>
+        <v>27.488610338108312</v>
       </c>
       <c r="E40" s="91">
         <f>B40/'back end data'!$B$97</f>
-        <v>54.577284300000002</v>
+        <v>55.073430812399998</v>
       </c>
       <c r="F40" s="56"/>
     </row>
@@ -36111,19 +36159,19 @@
       </c>
       <c r="B41" s="64">
         <f>SUM('household calculator'!I24:I27)</f>
-        <v>137.80764285749999</v>
+        <v>84.944498858999992</v>
       </c>
       <c r="C41" s="91">
         <f>B41/'back end data'!$B$95</f>
-        <v>46.244175455536912</v>
+        <v>28.504865388926174</v>
       </c>
       <c r="D41" s="96">
         <f>B41/'back end data'!$B$96</f>
-        <v>34.39172519528325</v>
+        <v>21.199026418517594</v>
       </c>
       <c r="E41" s="91">
         <f>B41/'back end data'!$B$97</f>
-        <v>68.903821428749993</v>
+        <v>42.472249429499996</v>
       </c>
       <c r="F41" s="56"/>
     </row>
@@ -36133,19 +36181,19 @@
       </c>
       <c r="B42" s="64">
         <f>SUM('household calculator'!I19:I21)+SUM('household calculator'!I7:I8)</f>
-        <v>1152.288182045</v>
+        <v>3381.9310128049115</v>
       </c>
       <c r="C42" s="91">
         <f>B42/'back end data'!$B$95</f>
-        <v>386.67388659228186</v>
+        <v>1134.8761787935944</v>
       </c>
       <c r="D42" s="96">
         <f>B42/'back end data'!$B$96</f>
-        <v>287.56880011105568</v>
+        <v>844.00574315071424</v>
       </c>
       <c r="E42" s="91">
         <f>B42/'back end data'!$B$97</f>
-        <v>576.14409102249999</v>
+        <v>1690.9655064024557</v>
       </c>
       <c r="F42" s="56"/>
     </row>
@@ -36155,19 +36203,19 @@
       </c>
       <c r="B43" s="64">
         <f>'household calculator'!I15+'household calculator'!I16</f>
-        <v>189.36296271200001</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="C43" s="91">
         <f>B43/'back end data'!$B$95</f>
-        <v>63.544618359731551</v>
+        <v>25.9388633703132</v>
       </c>
       <c r="D43" s="96">
         <f>B43/'back end data'!$B$96</f>
-        <v>47.258039109558283</v>
+        <v>19.290694495516181</v>
       </c>
       <c r="E43" s="91">
         <f>B43/'back end data'!$B$97</f>
-        <v>94.681481356000006</v>
+        <v>38.648906421766668</v>
       </c>
       <c r="F43" s="56"/>
     </row>
@@ -36199,19 +36247,19 @@
       </c>
       <c r="B45" s="67">
         <f>SUM(B40:B44)</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="C45" s="92">
         <f>B45/'back end data'!$B$95</f>
-        <v>533.09173027332213</v>
+        <v>1226.2819416551158</v>
       </c>
       <c r="D45" s="97">
         <f>B45/'back end data'!$B$96</f>
-        <v>396.45953486760675</v>
+        <v>911.98407440285632</v>
       </c>
       <c r="E45" s="92">
         <f>B45/'back end data'!$B$97</f>
-        <v>794.30667810725004</v>
+        <v>1827.1600930661225</v>
       </c>
       <c r="F45" s="56"/>
     </row>
@@ -36751,97 +36799,97 @@
     </row>
     <row r="6" spans="1:39" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="56"/>
-      <c r="B6" s="349" t="s">
+      <c r="B6" s="364" t="s">
         <v>322</v>
       </c>
-      <c r="C6" s="350"/>
-      <c r="D6" s="351"/>
+      <c r="C6" s="365"/>
+      <c r="D6" s="366"/>
       <c r="E6" s="56"/>
-      <c r="F6" s="355" t="s">
+      <c r="F6" s="370" t="s">
         <v>316</v>
       </c>
-      <c r="G6" s="356"/>
-      <c r="H6" s="356"/>
-      <c r="I6" s="356"/>
-      <c r="J6" s="357"/>
-      <c r="K6" s="361" t="s">
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="372"/>
+      <c r="K6" s="376" t="s">
         <v>317</v>
       </c>
-      <c r="L6" s="362"/>
-      <c r="M6" s="362"/>
-      <c r="N6" s="362"/>
-      <c r="O6" s="363"/>
-      <c r="P6" s="367" t="s">
+      <c r="L6" s="377"/>
+      <c r="M6" s="377"/>
+      <c r="N6" s="377"/>
+      <c r="O6" s="378"/>
+      <c r="P6" s="382" t="s">
         <v>318</v>
       </c>
-      <c r="Q6" s="368"/>
-      <c r="R6" s="368"/>
-      <c r="S6" s="368"/>
-      <c r="T6" s="368"/>
+      <c r="Q6" s="383"/>
+      <c r="R6" s="383"/>
+      <c r="S6" s="383"/>
+      <c r="T6" s="383"/>
       <c r="U6" s="182"/>
-      <c r="V6" s="336" t="s">
+      <c r="V6" s="351" t="s">
         <v>521</v>
       </c>
-      <c r="W6" s="337"/>
-      <c r="X6" s="337"/>
-      <c r="Y6" s="337"/>
-      <c r="Z6" s="338"/>
+      <c r="W6" s="352"/>
+      <c r="X6" s="352"/>
+      <c r="Y6" s="352"/>
+      <c r="Z6" s="353"/>
       <c r="AA6" s="56"/>
-      <c r="AB6" s="343" t="s">
+      <c r="AB6" s="358" t="s">
         <v>330</v>
       </c>
-      <c r="AC6" s="344"/>
-      <c r="AD6" s="344"/>
-      <c r="AE6" s="344"/>
-      <c r="AF6" s="345"/>
-      <c r="AG6" s="336" t="s">
+      <c r="AC6" s="359"/>
+      <c r="AD6" s="359"/>
+      <c r="AE6" s="359"/>
+      <c r="AF6" s="360"/>
+      <c r="AG6" s="351" t="s">
         <v>522</v>
       </c>
-      <c r="AH6" s="337"/>
-      <c r="AI6" s="337"/>
-      <c r="AJ6" s="337"/>
-      <c r="AK6" s="338"/>
+      <c r="AH6" s="352"/>
+      <c r="AI6" s="352"/>
+      <c r="AJ6" s="352"/>
+      <c r="AK6" s="353"/>
       <c r="AL6" s="56"/>
       <c r="AM6" s="56"/>
     </row>
     <row r="7" spans="1:39" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="56"/>
-      <c r="B7" s="352"/>
-      <c r="C7" s="353"/>
-      <c r="D7" s="354"/>
+      <c r="B7" s="367"/>
+      <c r="C7" s="368"/>
+      <c r="D7" s="369"/>
       <c r="E7" s="56"/>
-      <c r="F7" s="358"/>
-      <c r="G7" s="359"/>
-      <c r="H7" s="359"/>
-      <c r="I7" s="359"/>
-      <c r="J7" s="360"/>
-      <c r="K7" s="364"/>
-      <c r="L7" s="365"/>
-      <c r="M7" s="365"/>
-      <c r="N7" s="365"/>
-      <c r="O7" s="366"/>
-      <c r="P7" s="369"/>
-      <c r="Q7" s="370"/>
-      <c r="R7" s="370"/>
-      <c r="S7" s="370"/>
-      <c r="T7" s="370"/>
+      <c r="F7" s="373"/>
+      <c r="G7" s="374"/>
+      <c r="H7" s="374"/>
+      <c r="I7" s="374"/>
+      <c r="J7" s="375"/>
+      <c r="K7" s="379"/>
+      <c r="L7" s="380"/>
+      <c r="M7" s="380"/>
+      <c r="N7" s="380"/>
+      <c r="O7" s="381"/>
+      <c r="P7" s="384"/>
+      <c r="Q7" s="385"/>
+      <c r="R7" s="385"/>
+      <c r="S7" s="385"/>
+      <c r="T7" s="385"/>
       <c r="U7" s="182"/>
-      <c r="V7" s="339"/>
-      <c r="W7" s="340"/>
-      <c r="X7" s="340"/>
-      <c r="Y7" s="340"/>
-      <c r="Z7" s="341"/>
+      <c r="V7" s="354"/>
+      <c r="W7" s="355"/>
+      <c r="X7" s="355"/>
+      <c r="Y7" s="355"/>
+      <c r="Z7" s="356"/>
       <c r="AA7" s="56"/>
-      <c r="AB7" s="346"/>
-      <c r="AC7" s="347"/>
-      <c r="AD7" s="347"/>
-      <c r="AE7" s="347"/>
-      <c r="AF7" s="348"/>
-      <c r="AG7" s="339"/>
-      <c r="AH7" s="340"/>
-      <c r="AI7" s="340"/>
-      <c r="AJ7" s="340"/>
-      <c r="AK7" s="341"/>
+      <c r="AB7" s="361"/>
+      <c r="AC7" s="362"/>
+      <c r="AD7" s="362"/>
+      <c r="AE7" s="362"/>
+      <c r="AF7" s="363"/>
+      <c r="AG7" s="354"/>
+      <c r="AH7" s="355"/>
+      <c r="AI7" s="355"/>
+      <c r="AJ7" s="355"/>
+      <c r="AK7" s="356"/>
       <c r="AL7" s="56"/>
       <c r="AM7" s="56"/>
     </row>
@@ -37068,7 +37116,7 @@
       </c>
       <c r="P10" s="72">
         <f>'household calculator'!G7</f>
-        <v>54747</v>
+        <v>109494</v>
       </c>
       <c r="Q10" s="73">
         <f>'household calculator'!H7</f>
@@ -37076,7 +37124,7 @@
       </c>
       <c r="R10" s="73">
         <f>'household calculator'!I7</f>
-        <v>985.7600855666667</v>
+        <v>3279.3011509377779</v>
       </c>
       <c r="S10" s="73">
         <f>'household calculator'!J7</f>
@@ -37084,7 +37132,7 @@
       </c>
       <c r="T10" s="73">
         <f>'household calculator'!K7</f>
-        <v>1977.6508888888889</v>
+        <v>3955.3017777777777</v>
       </c>
       <c r="U10" s="130"/>
       <c r="V10" s="79">
@@ -37110,7 +37158,7 @@
       <c r="AA10" s="56"/>
       <c r="AB10" s="101">
         <f>(P10-K10)/(P$34-K$34)</f>
-        <v>0.56145228992326823</v>
+        <v>0.88987198555864888</v>
       </c>
       <c r="AC10" s="102"/>
       <c r="AD10" s="102" t="e">
@@ -37124,7 +37172,7 @@
       </c>
       <c r="AG10" s="187">
         <f>IF(P10&lt;&gt;0,(P10-K10),"")</f>
-        <v>54747</v>
+        <v>109494</v>
       </c>
       <c r="AH10" s="188" t="str">
         <f t="shared" ref="AH10:AK10" si="4">IF(Q10&lt;&gt;0,(Q10-L10),"")</f>
@@ -37132,7 +37180,7 @@
       </c>
       <c r="AI10" s="188">
         <f t="shared" si="4"/>
-        <v>985.7600855666667</v>
+        <v>3279.3011509377779</v>
       </c>
       <c r="AJ10" s="188" t="str">
         <f t="shared" si="4"/>
@@ -37140,7 +37188,7 @@
       </c>
       <c r="AK10" s="189">
         <f t="shared" si="4"/>
-        <v>1977.6508888888889</v>
+        <v>3955.3017777777777</v>
       </c>
       <c r="AL10" s="56"/>
       <c r="AM10" s="56"/>
@@ -37326,7 +37374,7 @@
       </c>
       <c r="P12" s="72">
         <f>'household calculator'!G9</f>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="Q12" s="73">
         <f>'household calculator'!H9</f>
@@ -37368,7 +37416,7 @@
       <c r="AA12" s="56"/>
       <c r="AB12" s="101">
         <f t="shared" si="11"/>
-        <v>0.24329599230008289</v>
+        <v>3.1145519494552711E-2</v>
       </c>
       <c r="AC12" s="103"/>
       <c r="AD12" s="102" t="e">
@@ -37382,7 +37430,7 @@
       </c>
       <c r="AG12" s="187">
         <f t="shared" si="12"/>
-        <v>23723.7</v>
+        <v>3832.29</v>
       </c>
       <c r="AH12" s="188" t="str">
         <f t="shared" si="13"/>
@@ -37454,7 +37502,7 @@
       </c>
       <c r="P13" s="72">
         <f>'household calculator'!G10</f>
-        <v>0</v>
+        <v>2189.88</v>
       </c>
       <c r="Q13" s="73">
         <f>'household calculator'!H10</f>
@@ -37473,9 +37521,9 @@
         <v>0</v>
       </c>
       <c r="U13" s="130"/>
-      <c r="V13" s="79" t="str">
+      <c r="V13" s="79">
         <f t="shared" si="6"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="W13" s="80" t="str">
         <f t="shared" si="7"/>
@@ -37496,7 +37544,7 @@
       <c r="AA13" s="56"/>
       <c r="AB13" s="101">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.779743971117298E-2</v>
       </c>
       <c r="AC13" s="103"/>
       <c r="AD13" s="102" t="e">
@@ -37508,9 +37556,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="AG13" s="187" t="str">
+      <c r="AG13" s="187">
         <f t="shared" si="12"/>
-        <v/>
+        <v>2189.88</v>
       </c>
       <c r="AH13" s="188" t="str">
         <f t="shared" si="13"/>
@@ -37582,7 +37630,7 @@
       </c>
       <c r="P14" s="72">
         <f>'household calculator'!G11</f>
-        <v>2554.86</v>
+        <v>1459.92</v>
       </c>
       <c r="Q14" s="73">
         <f>'household calculator'!H11</f>
@@ -37624,7 +37672,7 @@
       <c r="AA14" s="56"/>
       <c r="AB14" s="101">
         <f t="shared" si="11"/>
-        <v>2.6201106863085851E-2</v>
+        <v>1.1864959807448653E-2</v>
       </c>
       <c r="AC14" s="103"/>
       <c r="AD14" s="102" t="e">
@@ -37638,7 +37686,7 @@
       </c>
       <c r="AG14" s="187">
         <f t="shared" si="12"/>
-        <v>2554.86</v>
+        <v>1459.92</v>
       </c>
       <c r="AH14" s="188" t="str">
         <f t="shared" si="13"/>
@@ -37710,7 +37758,7 @@
       </c>
       <c r="P15" s="72">
         <f>'household calculator'!G12</f>
-        <v>260.7</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="73">
         <f>'household calculator'!H12</f>
@@ -37729,9 +37777,9 @@
         <v>0</v>
       </c>
       <c r="U15" s="130"/>
-      <c r="V15" s="79">
+      <c r="V15" s="79" t="str">
         <f t="shared" si="6"/>
-        <v>1</v>
+        <v/>
       </c>
       <c r="W15" s="80" t="str">
         <f t="shared" si="7"/>
@@ -37752,7 +37800,7 @@
       <c r="AA15" s="56"/>
       <c r="AB15" s="101">
         <f t="shared" si="11"/>
-        <v>2.6735823329679434E-3</v>
+        <v>0</v>
       </c>
       <c r="AC15" s="103"/>
       <c r="AD15" s="102" t="e">
@@ -37764,9 +37812,9 @@
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
-      <c r="AG15" s="187">
+      <c r="AG15" s="187" t="str">
         <f t="shared" si="12"/>
-        <v>260.7</v>
+        <v/>
       </c>
       <c r="AH15" s="188" t="str">
         <f t="shared" si="13"/>
@@ -38038,7 +38086,7 @@
       </c>
       <c r="P18" s="72">
         <f>'household calculator'!G15</f>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="Q18" s="73">
         <f>'household calculator'!H15</f>
@@ -38046,7 +38094,7 @@
       </c>
       <c r="R18" s="73">
         <f>'household calculator'!I15</f>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="S18" s="73">
         <f>'household calculator'!J15</f>
@@ -38054,7 +38102,7 @@
       </c>
       <c r="T18" s="73">
         <f>'household calculator'!K15</f>
-        <v>15.538685555555556</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="U18" s="130"/>
       <c r="V18" s="79">
@@ -38080,7 +38128,7 @@
       <c r="AA18" s="56"/>
       <c r="AB18" s="101">
         <f t="shared" si="11"/>
-        <v>5.2215062962863934E-2</v>
+        <v>1.0589476628147921E-2</v>
       </c>
       <c r="AC18" s="103"/>
       <c r="AD18" s="102" t="e">
@@ -38094,7 +38142,7 @@
       </c>
       <c r="AG18" s="187">
         <f t="shared" si="12"/>
-        <v>5091.4709999999995</v>
+        <v>1302.9785999999999</v>
       </c>
       <c r="AH18" s="188" t="str">
         <f t="shared" si="13"/>
@@ -38102,7 +38150,7 @@
       </c>
       <c r="AI18" s="188">
         <f t="shared" si="14"/>
-        <v>92.94309378200002</v>
+        <v>77.297812843533336</v>
       </c>
       <c r="AJ18" s="188" t="str">
         <f t="shared" si="15"/>
@@ -38110,7 +38158,7 @@
       </c>
       <c r="AK18" s="189">
         <f t="shared" si="16"/>
-        <v>15.538685555555556</v>
+        <v>7.7693427777777782</v>
       </c>
       <c r="AL18" s="56"/>
       <c r="AM18" s="56"/>
@@ -38175,7 +38223,7 @@
       </c>
       <c r="R19" s="73">
         <f>'household calculator'!I16</f>
-        <v>96.419868930000007</v>
+        <v>0</v>
       </c>
       <c r="S19" s="73">
         <f>'household calculator'!J16</f>
@@ -38183,7 +38231,7 @@
       </c>
       <c r="T19" s="73">
         <f>'household calculator'!K16</f>
-        <v>193.43940000000001</v>
+        <v>0</v>
       </c>
       <c r="U19" s="130"/>
       <c r="V19" s="79" t="str">
@@ -38194,17 +38242,17 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X19" s="80" t="e">
+      <c r="X19" s="80" t="str">
         <f t="shared" si="8"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="Y19" s="80" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z19" s="81" t="e">
+      <c r="Z19" s="81" t="str">
         <f t="shared" si="10"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="AA19" s="56"/>
       <c r="AB19" s="101">
@@ -38229,17 +38277,17 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AI19" s="188" t="e">
+      <c r="AI19" s="188" t="str">
         <f t="shared" si="14"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="AJ19" s="188" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AK19" s="189" t="e">
+      <c r="AK19" s="189" t="str">
         <f t="shared" si="16"/>
-        <v>#N/A</v>
+        <v/>
       </c>
       <c r="AL19" s="56"/>
       <c r="AM19" s="56"/>
@@ -38492,7 +38540,7 @@
       </c>
       <c r="P22" s="72">
         <f>'household calculator'!G19</f>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="Q22" s="73">
         <f>'household calculator'!H19</f>
@@ -38500,7 +38548,7 @@
       </c>
       <c r="R22" s="73">
         <f>'household calculator'!I19</f>
-        <v>32.746370580000004</v>
+        <v>7.2624304368000008</v>
       </c>
       <c r="S22" s="73">
         <f>'household calculator'!J19</f>
@@ -38508,7 +38556,7 @@
       </c>
       <c r="T22" s="73">
         <f>'household calculator'!K19</f>
-        <v>65.696399999999997</v>
+        <v>8.7595200000000002</v>
       </c>
       <c r="U22" s="130"/>
       <c r="V22" s="79">
@@ -38534,7 +38582,7 @@
       <c r="AA22" s="56"/>
       <c r="AB22" s="101">
         <f t="shared" si="11"/>
-        <v>1.8715076330775608E-3</v>
+        <v>5.932479903724327E-4</v>
       </c>
       <c r="AC22" s="103"/>
       <c r="AD22" s="102" t="e">
@@ -38548,7 +38596,7 @@
       </c>
       <c r="AG22" s="187">
         <f t="shared" si="12"/>
-        <v>182.49</v>
+        <v>72.996000000000009</v>
       </c>
       <c r="AH22" s="188" t="str">
         <f t="shared" si="13"/>
@@ -38556,7 +38604,7 @@
       </c>
       <c r="AI22" s="188">
         <f t="shared" si="14"/>
-        <v>32.746370580000004</v>
+        <v>7.2624304368000008</v>
       </c>
       <c r="AJ22" s="188" t="str">
         <f t="shared" si="15"/>
@@ -38564,7 +38612,7 @@
       </c>
       <c r="AK22" s="189">
         <f t="shared" si="16"/>
-        <v>65.696399999999997</v>
+        <v>8.7595200000000002</v>
       </c>
       <c r="AL22" s="56"/>
       <c r="AM22" s="56"/>
@@ -38622,7 +38670,7 @@
       </c>
       <c r="P23" s="72">
         <f>'household calculator'!G20</f>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="Q23" s="73">
         <f>'household calculator'!H20</f>
@@ -38630,7 +38678,7 @@
       </c>
       <c r="R23" s="73">
         <f>'household calculator'!I20</f>
-        <v>133.78172589833332</v>
+        <v>95.367431430333326</v>
       </c>
       <c r="S23" s="73">
         <f>'household calculator'!J20</f>
@@ -38638,7 +38686,7 @@
       </c>
       <c r="T23" s="73">
         <f>'household calculator'!K20</f>
-        <v>268.39547777777778</v>
+        <v>115.02663333333332</v>
       </c>
       <c r="U23" s="130"/>
       <c r="V23" s="79">
@@ -38664,7 +38712,7 @@
       <c r="AA23" s="56"/>
       <c r="AB23" s="101">
         <f t="shared" si="11"/>
-        <v>0.11229045798465363</v>
+        <v>3.8137370809656387E-2</v>
       </c>
       <c r="AC23" s="103"/>
       <c r="AD23" s="102" t="e">
@@ -38678,7 +38726,7 @@
       </c>
       <c r="AG23" s="187">
         <f t="shared" si="12"/>
-        <v>10949.4</v>
+        <v>4692.6000000000004</v>
       </c>
       <c r="AH23" s="188" t="str">
         <f t="shared" si="13"/>
@@ -38686,7 +38734,7 @@
       </c>
       <c r="AI23" s="188">
         <f t="shared" si="14"/>
-        <v>133.78172589833332</v>
+        <v>95.367431430333326</v>
       </c>
       <c r="AJ23" s="188" t="str">
         <f t="shared" si="15"/>
@@ -38694,7 +38742,7 @@
       </c>
       <c r="AK23" s="189">
         <f t="shared" si="16"/>
-        <v>268.39547777777778</v>
+        <v>115.02663333333332</v>
       </c>
       <c r="AL23" s="56"/>
       <c r="AM23" s="56"/>
@@ -39087,7 +39135,7 @@
       </c>
       <c r="R27" s="73">
         <f>'household calculator'!I24</f>
-        <v>0</v>
+        <v>7.7811754679999989</v>
       </c>
       <c r="S27" s="73">
         <f>'household calculator'!J24</f>
@@ -39095,7 +39143,7 @@
       </c>
       <c r="T27" s="73">
         <f>'household calculator'!K24</f>
-        <v>0</v>
+        <v>9.3851999999999993</v>
       </c>
       <c r="U27" s="130"/>
       <c r="V27" s="79" t="str">
@@ -39106,17 +39154,17 @@
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="X27" s="80" t="str">
+      <c r="X27" s="80">
         <f t="shared" si="8"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="Y27" s="80" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="Z27" s="81" t="str">
+      <c r="Z27" s="81">
         <f t="shared" si="10"/>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AA27" s="56"/>
       <c r="AB27" s="101">
@@ -39141,17 +39189,17 @@
         <f t="shared" si="13"/>
         <v/>
       </c>
-      <c r="AI27" s="188" t="str">
+      <c r="AI27" s="188">
         <f t="shared" si="14"/>
-        <v/>
+        <v>7.7811754679999989</v>
       </c>
       <c r="AJ27" s="188" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="AK27" s="189" t="str">
+      <c r="AK27" s="189">
         <f t="shared" si="16"/>
-        <v/>
+        <v>9.3851999999999993</v>
       </c>
       <c r="AL27" s="56"/>
       <c r="AM27" s="56"/>
@@ -39216,7 +39264,7 @@
       </c>
       <c r="R28" s="73">
         <f>'household calculator'!I25</f>
-        <v>136.44321074999999</v>
+        <v>75.650317049999998</v>
       </c>
       <c r="S28" s="73">
         <f>'household calculator'!J25</f>
@@ -39224,7 +39272,7 @@
       </c>
       <c r="T28" s="73">
         <f>'household calculator'!K25</f>
-        <v>273.73500000000001</v>
+        <v>91.245000000000005</v>
       </c>
       <c r="U28" s="130"/>
       <c r="V28" s="79" t="str">
@@ -39272,7 +39320,7 @@
       </c>
       <c r="AI28" s="188">
         <f t="shared" si="14"/>
-        <v>136.44321074999999</v>
+        <v>75.650317049999998</v>
       </c>
       <c r="AJ28" s="188" t="str">
         <f t="shared" si="15"/>
@@ -39280,7 +39328,7 @@
       </c>
       <c r="AK28" s="189">
         <f t="shared" si="16"/>
-        <v>273.73500000000001</v>
+        <v>91.245000000000005</v>
       </c>
       <c r="AL28" s="56"/>
       <c r="AM28" s="56"/>
@@ -39345,7 +39393,7 @@
       </c>
       <c r="R29" s="73">
         <f>'household calculator'!I26</f>
-        <v>1.3644321075000001</v>
+        <v>1.5130063410000001</v>
       </c>
       <c r="S29" s="73">
         <f>'household calculator'!J26</f>
@@ -39353,7 +39401,7 @@
       </c>
       <c r="T29" s="73">
         <f>'household calculator'!K26</f>
-        <v>2.7373499999999997</v>
+        <v>1.8249000000000002</v>
       </c>
       <c r="U29" s="130"/>
       <c r="V29" s="79" t="str">
@@ -39401,7 +39449,7 @@
       </c>
       <c r="AI29" s="188">
         <f t="shared" si="14"/>
-        <v>1.3644321075000001</v>
+        <v>1.5130063410000001</v>
       </c>
       <c r="AJ29" s="188" t="str">
         <f t="shared" si="15"/>
@@ -39409,7 +39457,7 @@
       </c>
       <c r="AK29" s="189">
         <f t="shared" si="16"/>
-        <v>2.7373499999999997</v>
+        <v>1.8249000000000002</v>
       </c>
       <c r="AL29" s="56"/>
       <c r="AM29" s="56"/>
@@ -39801,7 +39849,7 @@
       </c>
       <c r="R33" s="75">
         <f>'household calculator'!I30</f>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="S33" s="75">
         <f>'household calculator'!J30</f>
@@ -39809,7 +39857,7 @@
       </c>
       <c r="T33" s="75">
         <f>'household calculator'!K30</f>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
       <c r="U33" s="130"/>
       <c r="V33" s="82" t="str">
@@ -39857,7 +39905,7 @@
       </c>
       <c r="AI33" s="194">
         <f t="shared" si="14"/>
-        <v>109.1545686</v>
+        <v>110.1468616248</v>
       </c>
       <c r="AJ33" s="194" t="str">
         <f t="shared" si="15"/>
@@ -39865,7 +39913,7 @@
       </c>
       <c r="AK33" s="195">
         <f t="shared" si="16"/>
-        <v>218.988</v>
+        <v>132.85272000000001</v>
       </c>
       <c r="AL33" s="56"/>
       <c r="AM33" s="56"/>
@@ -39918,7 +39966,7 @@
       </c>
       <c r="P34" s="198">
         <f>'household calculator'!G31</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="Q34" s="76">
         <f>'household calculator'!H31</f>
@@ -39926,7 +39974,7 @@
       </c>
       <c r="R34" s="76">
         <f>'household calculator'!I31</f>
-        <v>1588.6133562145001</v>
+        <v>3654.320186132245</v>
       </c>
       <c r="S34" s="76">
         <f>'household calculator'!J31</f>
@@ -39934,7 +39982,7 @@
       </c>
       <c r="T34" s="76">
         <f>'household calculator'!K31</f>
-        <v>3016.1812022222216</v>
+        <v>4322.1650938888879</v>
       </c>
       <c r="U34" s="183"/>
       <c r="V34" s="184">
@@ -39974,7 +40022,7 @@
       </c>
       <c r="AG34" s="196">
         <f t="shared" ref="AG34" si="20">IF(P34&lt;&gt;0,(P34-K34),"")</f>
-        <v>97509.620999999999</v>
+        <v>123044.6646</v>
       </c>
       <c r="AH34" s="196" t="str">
         <f t="shared" ref="AH34" si="21">IF(Q34&lt;&gt;0,(Q34-L34),"")</f>
@@ -40053,13 +40101,13 @@
       <c r="S36" s="56"/>
       <c r="T36" s="56"/>
       <c r="U36" s="56"/>
-      <c r="V36" s="342" t="s">
+      <c r="V36" s="357" t="s">
         <v>329</v>
       </c>
-      <c r="W36" s="342"/>
-      <c r="X36" s="342"/>
-      <c r="Y36" s="342"/>
-      <c r="Z36" s="342"/>
+      <c r="W36" s="357"/>
+      <c r="X36" s="357"/>
+      <c r="Y36" s="357"/>
+      <c r="Z36" s="357"/>
       <c r="AA36" s="56"/>
       <c r="AG36" s="56"/>
       <c r="AH36" s="56"/>
@@ -40246,8 +40294,8 @@
   </sheetPr>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -40256,34 +40304,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="29.5" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A1" s="377" t="s">
+      <c r="A1" s="392" t="s">
         <v>648</v>
       </c>
-      <c r="B1" s="378"/>
-      <c r="C1" s="379"/>
-      <c r="E1" s="383" t="s">
+      <c r="B1" s="393"/>
+      <c r="C1" s="394"/>
+      <c r="E1" s="398" t="s">
         <v>650</v>
       </c>
-      <c r="F1" s="384"/>
+      <c r="F1" s="399"/>
       <c r="G1" s="284">
         <f>(GreenStyleUser!M34-GreenStyleUser!R34)/GreenStyleUser!R34</f>
-        <v>-0.35366870041544468</v>
+        <v>-0.41231301187199099</v>
       </c>
       <c r="H1" s="286"/>
     </row>
     <row r="2" spans="1:8" ht="28" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="380" t="s">
+      <c r="A2" s="395" t="s">
         <v>649</v>
       </c>
-      <c r="B2" s="381"/>
-      <c r="C2" s="382"/>
-      <c r="E2" s="385" t="s">
+      <c r="B2" s="396"/>
+      <c r="C2" s="397"/>
+      <c r="E2" s="400" t="s">
         <v>651</v>
       </c>
-      <c r="F2" s="386"/>
+      <c r="F2" s="401"/>
       <c r="G2" s="285">
         <f>GreenStyleUser!R34-GreenStyleUser!M34</f>
-        <v>561.84282115500014</v>
+        <v>1506.7237622888006</v>
       </c>
       <c r="H2" s="287" t="s">
         <v>652</v>
@@ -40299,12 +40347,12 @@
       <c r="C3" s="180" t="s">
         <v>647</v>
       </c>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="402" t="s">
         <v>653</v>
       </c>
-      <c r="F3" s="388"/>
-      <c r="G3" s="388"/>
-      <c r="H3" s="389"/>
+      <c r="F3" s="403"/>
+      <c r="G3" s="403"/>
+      <c r="H3" s="404"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="181" t="str">
@@ -40317,15 +40365,15 @@
       <c r="C4" s="282" t="s">
         <v>483</v>
       </c>
-      <c r="E4" s="371" t="s">
+      <c r="E4" s="386" t="s">
         <v>654</v>
       </c>
-      <c r="F4" s="372"/>
+      <c r="F4" s="387"/>
       <c r="G4" s="288">
         <f>IF(GreenStyleUser!M34-1000&lt;0, "Achieved!", GreenStyleUser!M34-1000)</f>
-        <v>26.770535059499935</v>
-      </c>
-      <c r="H4" s="375" t="s">
+        <v>1147.5964238434444</v>
+      </c>
+      <c r="H4" s="390" t="s">
         <v>652</v>
       </c>
     </row>
@@ -40340,20 +40388,20 @@
       <c r="C5" s="282" t="s">
         <v>486</v>
       </c>
-      <c r="E5" s="373" t="s">
+      <c r="E5" s="388" t="s">
         <v>655</v>
       </c>
-      <c r="F5" s="374"/>
+      <c r="F5" s="389"/>
       <c r="G5" s="289">
         <f>IF(GreenStyleUser!M34-500&lt;0, "Achieved!", GreenStyleUser!M34-500)</f>
-        <v>526.77053505949993</v>
-      </c>
-      <c r="H5" s="376"/>
+        <v>1647.5964238434444</v>
+      </c>
+      <c r="H5" s="391"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="181" t="str">
         <f>'Household Input'!B13</f>
-        <v>Standard toilet</v>
+        <v>Toilet with two flush options (urine/faeces)</v>
       </c>
       <c r="B6" s="181" t="s">
         <v>488</v>
@@ -40377,7 +40425,7 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="181" t="str">
         <f>'Household Input'!B19</f>
-        <v>Washing machine standard</v>
+        <v>Washing machine eco mode</v>
       </c>
       <c r="B8" s="181" t="s">
         <v>492</v>
@@ -40389,7 +40437,7 @@
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="181" t="str">
         <f>'Household Input'!B20</f>
-        <v>Dry with tumble dryer</v>
+        <v>Dry in sun and wind</v>
       </c>
       <c r="B9" s="181" t="s">
         <v>494</v>
@@ -40401,7 +40449,7 @@
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="181" t="str">
         <f>'Household Input'!B23</f>
-        <v>Stove</v>
+        <v>Kettle</v>
       </c>
       <c r="B10" s="181" t="s">
         <v>164</v>
@@ -40443,7 +40491,7 @@
         <v>173</v>
       </c>
       <c r="C13" s="282" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
@@ -40485,7 +40533,7 @@
     <row r="17" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="281" t="str">
         <f>'Household Input'!B34</f>
-        <v>mainly LED lighting</v>
+        <v>mainly CFL (also known as energy saving lamps)</v>
       </c>
       <c r="B17" s="281" t="s">
         <v>511</v>
